--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Fundamental data" sheetId="1" r:id="rId1"/>
-    <sheet name="Target data" sheetId="2" r:id="rId2"/>
+    <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
+    <sheet name="target_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,50 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="189">
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Optional (for reporting purposes)</t>
-  </si>
-  <si>
-    <t>Optional (based on user choice)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="185">
   <si>
     <t>company_name</t>
   </si>
   <si>
-    <t>ISIC</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Industry_lvl1</t>
-  </si>
-  <si>
-    <t>Industry_lvl2</t>
-  </si>
-  <si>
-    <t>Industry_lvl3</t>
-  </si>
-  <si>
-    <t>Industry_lvl4</t>
-  </si>
-  <si>
     <t>sector</t>
   </si>
   <si>
-    <t>GHG_scope1+2</t>
-  </si>
-  <si>
-    <t>GHG_scope3</t>
-  </si>
-  <si>
     <t>market_cap</t>
   </si>
   <si>
@@ -495,30 +459,6 @@
     <t>Oceania</t>
   </si>
   <si>
-    <t>Optional (assume equal to base if not available)</t>
-  </si>
-  <si>
-    <t>Optional (required for convertion purposes)</t>
-  </si>
-  <si>
-    <t>Target type</t>
-  </si>
-  <si>
-    <t>Intensity_metric</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Coverage_S1</t>
-  </si>
-  <si>
-    <t>Coverage_S2</t>
-  </si>
-  <si>
-    <t>Coverage_S3</t>
-  </si>
-  <si>
     <t>reduction_ambition</t>
   </si>
   <si>
@@ -531,15 +471,6 @@
     <t>start_year</t>
   </si>
   <si>
-    <t>BaseYear_GHG_S1</t>
-  </si>
-  <si>
-    <t>BaseYear_GHG_S2</t>
-  </si>
-  <si>
-    <t>BaseYear_GHG_S3</t>
-  </si>
-  <si>
     <t>achieved_reduction</t>
   </si>
   <si>
@@ -592,6 +523,63 @@
   </si>
   <si>
     <t>company_total_assets</t>
+  </si>
+  <si>
+    <t>isic</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>industry_level_1</t>
+  </si>
+  <si>
+    <t>industry_level_2</t>
+  </si>
+  <si>
+    <t>industry_level_3</t>
+  </si>
+  <si>
+    <t>industry_level_4</t>
+  </si>
+  <si>
+    <t>ghg_s1s2</t>
+  </si>
+  <si>
+    <t>ghg_s3</t>
+  </si>
+  <si>
+    <t>company_revenue</t>
+  </si>
+  <si>
+    <t>target_type</t>
+  </si>
+  <si>
+    <t>intensity_metric</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>coverage_s1</t>
+  </si>
+  <si>
+    <t>coverage_s2</t>
+  </si>
+  <si>
+    <t>coverage_s3</t>
+  </si>
+  <si>
+    <t>base_year_ghg_s1</t>
+  </si>
+  <si>
+    <t>base_year_ghg_s2</t>
+  </si>
+  <si>
+    <t>base_year_ghg_s3</t>
   </si>
 </sst>
 </file>
@@ -623,7 +611,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -631,45 +619,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,26 +655,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q52" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A2:Q52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:Q51"/>
   <tableColumns count="17">
     <tableColumn id="1" name="company_name"/>
     <tableColumn id="2" name="company_id"/>
-    <tableColumn id="3" name="ISIC"/>
-    <tableColumn id="4" name="Country"/>
-    <tableColumn id="20" name="Region"/>
-    <tableColumn id="5" name="Industry_lvl1"/>
-    <tableColumn id="22" name="Industry_lvl2"/>
-    <tableColumn id="21" name="Industry_lvl3"/>
-    <tableColumn id="7" name="Industry_lvl4"/>
+    <tableColumn id="3" name="isic"/>
+    <tableColumn id="4" name="country"/>
+    <tableColumn id="20" name="region"/>
+    <tableColumn id="5" name="industry_level_1"/>
+    <tableColumn id="22" name="industry_level_2"/>
+    <tableColumn id="21" name="industry_level_3"/>
+    <tableColumn id="7" name="industry_level_4"/>
     <tableColumn id="6" name="sector"/>
-    <tableColumn id="18" name="GHG_scope1+2"/>
-    <tableColumn id="8" name="GHG_scope3"/>
-    <tableColumn id="9" name="Revenue"/>
+    <tableColumn id="18" name="ghg_s1s2"/>
+    <tableColumn id="8" name="ghg_s3"/>
+    <tableColumn id="9" name="company_revenue"/>
     <tableColumn id="10" name="market_cap"/>
     <tableColumn id="11" name="company_enterprise_value"/>
     <tableColumn id="12" name="company_total_assets" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[market_cap]]*Q3</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[market_cap]]*Q2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="cash_equivalents"/>
   </tableColumns>
@@ -727,24 +683,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table4" displayName="Table4" ref="A2:P121" totalsRowShown="0">
-  <autoFilter ref="A2:P121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table4" displayName="Table4" ref="A1:P120" totalsRowShown="0">
+  <autoFilter ref="A1:P120"/>
   <tableColumns count="16">
     <tableColumn id="1" name="company_name"/>
     <tableColumn id="2" name="company_id"/>
-    <tableColumn id="3" name="Target type"/>
-    <tableColumn id="10" name="Intensity_metric"/>
-    <tableColumn id="4" name="Scope"/>
-    <tableColumn id="12" name="Coverage_S1"/>
-    <tableColumn id="11" name="Coverage_S2"/>
-    <tableColumn id="5" name="Coverage_S3"/>
+    <tableColumn id="3" name="target_type"/>
+    <tableColumn id="10" name="intensity_metric"/>
+    <tableColumn id="4" name="scope"/>
+    <tableColumn id="12" name="coverage_s1"/>
+    <tableColumn id="11" name="coverage_s2"/>
+    <tableColumn id="5" name="coverage_s3"/>
     <tableColumn id="6" name="reduction_ambition"/>
     <tableColumn id="7" name="base_year"/>
     <tableColumn id="8" name="end_year"/>
     <tableColumn id="9" name="start_year"/>
-    <tableColumn id="13" name="BaseYear_GHG_S1"/>
-    <tableColumn id="14" name="BaseYear_GHG_S2"/>
-    <tableColumn id="15" name="BaseYear_GHG_S3"/>
+    <tableColumn id="13" name="base_year_ghg_s1"/>
+    <tableColumn id="14" name="base_year_ghg_s2"/>
+    <tableColumn id="15" name="base_year_ghg_s3"/>
     <tableColumn id="16" name="achieved_reduction"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1014,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,1990 +989,1960 @@
     <col min="17" max="17" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="8" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>179</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
+      <c r="K2">
+        <v>24965246.128183831</v>
+      </c>
+      <c r="L2">
+        <v>66591747.474483326</v>
+      </c>
+      <c r="M2">
+        <v>20248547996.814251</v>
+      </c>
+      <c r="N2">
+        <v>10464805624.288572</v>
+      </c>
+      <c r="O2">
+        <v>20370723452.973633</v>
+      </c>
+      <c r="P2">
+        <v>814618.20572459628</v>
+      </c>
+      <c r="Q2">
+        <v>4528467714.7267609</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>24965246.128183831</v>
+        <v>1288468.9201645069</v>
       </c>
       <c r="L3">
-        <v>66591747.474483326</v>
+        <v>1739806.6661840158</v>
       </c>
       <c r="M3">
-        <v>20248547996.814251</v>
+        <v>276185899.61435097</v>
       </c>
       <c r="N3">
-        <v>10464805624.288572</v>
+        <v>170431377.0111033</v>
       </c>
       <c r="O3">
-        <v>20370723452.973633</v>
+        <v>348843699.94010025</v>
       </c>
       <c r="P3">
-        <v>814618.20572459628</v>
+        <v>27314.648029499283</v>
       </c>
       <c r="Q3">
-        <v>4528467714.7267609</v>
+        <v>69006940.998092517</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>1288468.9201645069</v>
+        <v>230191.46897492089</v>
       </c>
       <c r="L4">
-        <v>1739806.6661840158</v>
+        <v>1285703.5706158055</v>
       </c>
       <c r="M4">
-        <v>276185899.61435097</v>
+        <v>10283015131.798985</v>
       </c>
       <c r="N4">
-        <v>170431377.0111033</v>
+        <v>3087133686.0634212</v>
       </c>
       <c r="O4">
-        <v>348843699.94010025</v>
+        <v>4800604056.5816851</v>
       </c>
       <c r="P4">
-        <v>27314.648029499283</v>
+        <v>343642.47370860493</v>
       </c>
       <c r="Q4">
-        <v>69006940.998092517</v>
+        <v>1163119848.4230556</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>230191.46897492089</v>
+        <v>178705.06184309252</v>
       </c>
       <c r="L5">
-        <v>1285703.5706158055</v>
+        <v>476673.9446333939</v>
       </c>
       <c r="M5">
-        <v>10283015131.798985</v>
+        <v>1860376238.2982879</v>
       </c>
       <c r="N5">
-        <v>3087133686.0634212</v>
+        <v>1395966780.8786128</v>
       </c>
       <c r="O5">
-        <v>4800604056.5816851</v>
+        <v>1849921444.2644947</v>
       </c>
       <c r="P5">
-        <v>343642.47370860493</v>
+        <v>159262.60935025438</v>
       </c>
       <c r="Q5">
-        <v>1163119848.4230556</v>
+        <v>117630751.45422383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>178705.06184309252</v>
+        <v>97771.835813462851</v>
       </c>
       <c r="L6">
-        <v>476673.9446333939</v>
+        <v>260794.44068679411</v>
       </c>
       <c r="M6">
-        <v>1860376238.2982879</v>
+        <v>31781332590.123966</v>
       </c>
       <c r="N6">
-        <v>1395966780.8786128</v>
+        <v>20377644507.874138</v>
       </c>
       <c r="O6">
-        <v>1849921444.2644947</v>
+        <v>34890123636.208443</v>
       </c>
       <c r="P6">
-        <v>159262.60935025438</v>
+        <v>43112605.779609621</v>
       </c>
       <c r="Q6">
-        <v>117630751.45422383</v>
+        <v>28933197273.168182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>97771.835813462851</v>
+        <v>466041.10015869705</v>
       </c>
       <c r="L7">
-        <v>260794.44068679411</v>
+        <v>1094183.4525468543</v>
       </c>
       <c r="M7">
-        <v>31781332590.123966</v>
+        <v>22080444055.733891</v>
       </c>
       <c r="N7">
-        <v>20377644507.874138</v>
+        <v>89487875452.409622</v>
       </c>
       <c r="O7">
-        <v>34890123636.208443</v>
+        <v>142815816841.33038</v>
       </c>
       <c r="P7">
-        <v>43112605.779609621</v>
+        <v>12916972.788158268</v>
       </c>
       <c r="Q7">
-        <v>28933197273.168182</v>
+        <v>51876930016.314178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>466041.10015869705</v>
+        <v>128250.99022235045</v>
       </c>
       <c r="L8">
-        <v>1094183.4525468543</v>
+        <v>342093.86562374735</v>
       </c>
       <c r="M8">
-        <v>22080444055.733891</v>
+        <v>940141306.02078247</v>
       </c>
       <c r="N8">
-        <v>89487875452.409622</v>
+        <v>81646651.50551033</v>
       </c>
       <c r="O8">
-        <v>142815816841.33038</v>
+        <v>1803870072.9332182</v>
       </c>
       <c r="P8">
-        <v>12916972.788158268</v>
+        <v>24970.460312431045</v>
       </c>
       <c r="Q8">
-        <v>51876930016.314178</v>
+        <v>2214490.9702577037</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>128250.99022235045</v>
+        <v>1736.1153986195452</v>
       </c>
       <c r="L9">
-        <v>342093.86562374735</v>
+        <v>6920.0092644871493</v>
       </c>
       <c r="M9">
-        <v>940141306.02078247</v>
+        <v>7175786054.9926157</v>
       </c>
       <c r="N9">
-        <v>81646651.50551033</v>
+        <v>3440335994.5862403</v>
       </c>
       <c r="O9">
-        <v>1803870072.9332182</v>
+        <v>65904184518.992409</v>
       </c>
       <c r="P9">
-        <v>24970.460312431045</v>
+        <v>981839.21865557774</v>
       </c>
       <c r="Q9">
-        <v>2214490.9702577037</v>
+        <v>203940251.11854151</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>1736.1153986195452</v>
+        <v>196777.12553570265</v>
       </c>
       <c r="L10">
-        <v>6920.0092644871493</v>
+        <v>506897.87537997012</v>
       </c>
       <c r="M10">
-        <v>7175786054.9926157</v>
+        <v>23960680689.116013</v>
       </c>
       <c r="N10">
-        <v>3440335994.5862403</v>
+        <v>70745916655.317459</v>
       </c>
       <c r="O10">
-        <v>65904184518.992409</v>
+        <v>73065684225.787689</v>
       </c>
       <c r="P10">
-        <v>981839.21865557774</v>
+        <v>62472439.555649042</v>
       </c>
       <c r="Q10">
-        <v>203940251.11854151</v>
+        <v>42950453116.50563</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K11">
-        <v>196777.12553570265</v>
+        <v>259165.86622702488</v>
       </c>
       <c r="L11">
-        <v>506897.87537997012</v>
+        <v>349949.07106641174</v>
       </c>
       <c r="M11">
-        <v>23960680689.116013</v>
+        <v>3219109002.8957133</v>
       </c>
       <c r="N11">
-        <v>70745916655.317459</v>
+        <v>2496486713.6419001</v>
       </c>
       <c r="O11">
-        <v>73065684225.787689</v>
+        <v>5824358695.1941013</v>
       </c>
       <c r="P11">
-        <v>62472439.555649042</v>
+        <v>1524416.4350418877</v>
       </c>
       <c r="Q11">
-        <v>42950453116.50563</v>
+        <v>5520000408.4878492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>259165.86622702488</v>
+        <v>81810.361536814045</v>
       </c>
       <c r="L12">
-        <v>349949.07106641174</v>
+        <v>110467.71104618369</v>
       </c>
       <c r="M12">
-        <v>3219109002.8957133</v>
+        <v>2270961652.5606284</v>
       </c>
       <c r="N12">
-        <v>2496486713.6419001</v>
+        <v>2706457656.0257611</v>
       </c>
       <c r="O12">
-        <v>5824358695.1941013</v>
+        <v>6515964879.9462776</v>
       </c>
       <c r="P12">
-        <v>1524416.4350418877</v>
+        <v>1952107.2215887399</v>
       </c>
       <c r="Q12">
-        <v>5520000408.4878492</v>
+        <v>505519258.45795137</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>81810.361536814045</v>
+        <v>14847.919278129972</v>
       </c>
       <c r="L13">
-        <v>110467.71104618369</v>
+        <v>38248.240060462806</v>
       </c>
       <c r="M13">
-        <v>2270961652.5606284</v>
+        <v>2923800677.4723639</v>
       </c>
       <c r="N13">
-        <v>2706457656.0257611</v>
+        <v>664730339.05847764</v>
       </c>
       <c r="O13">
-        <v>6515964879.9462776</v>
+        <v>835883594.76778483</v>
       </c>
       <c r="P13">
-        <v>1952107.2215887399</v>
+        <v>2411999.9946857756</v>
       </c>
       <c r="Q13">
-        <v>505519258.45795137</v>
+        <v>462245314.11453331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>14847.919278129972</v>
+        <v>31895.87194649009</v>
       </c>
       <c r="L14">
-        <v>38248.240060462806</v>
+        <v>85078.34608293364</v>
       </c>
       <c r="M14">
-        <v>2923800677.4723639</v>
+        <v>13732514101.607698</v>
       </c>
       <c r="N14">
-        <v>664730339.05847764</v>
+        <v>3691311949.1466961</v>
       </c>
       <c r="O14">
-        <v>835883594.76778483</v>
+        <v>5115075673.0843115</v>
       </c>
       <c r="P14">
-        <v>2411999.9946857756</v>
+        <v>11668515.241009872</v>
       </c>
       <c r="Q14">
-        <v>462245314.11453331</v>
+        <v>1853875026.0311818</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>31895.87194649009</v>
+        <v>42305.282163536431</v>
       </c>
       <c r="L15">
-        <v>85078.34608293364</v>
+        <v>108978.40685326984</v>
       </c>
       <c r="M15">
-        <v>13732514101.607698</v>
+        <v>209346393.16997689</v>
       </c>
       <c r="N15">
-        <v>3691311949.1466961</v>
+        <v>4230199159.3241043</v>
       </c>
       <c r="O15">
-        <v>5115075673.0843115</v>
+        <v>4360171694.8190174</v>
       </c>
       <c r="P15">
-        <v>11668515.241009872</v>
+        <v>17677610.033387754</v>
       </c>
       <c r="Q15">
-        <v>1853875026.0311818</v>
+        <v>3272481697.8285317</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>42305.282163536431</v>
+        <v>118561.91297201814</v>
       </c>
       <c r="L16">
-        <v>108978.40685326984</v>
+        <v>316249.43444119371</v>
       </c>
       <c r="M16">
-        <v>209346393.16997689</v>
+        <v>1273070098.4773746</v>
       </c>
       <c r="N16">
-        <v>4230199159.3241043</v>
+        <v>4968986648.6279879</v>
       </c>
       <c r="O16">
-        <v>4360171694.8190174</v>
+        <v>7465409801.5517616</v>
       </c>
       <c r="P16">
-        <v>17677610.033387754</v>
+        <v>2598718.9099521809</v>
       </c>
       <c r="Q16">
-        <v>3272481697.8285317</v>
+        <v>518880676.89759755</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>118561.91297201814</v>
+        <v>45833216.792469583</v>
       </c>
       <c r="L17">
-        <v>316249.43444119371</v>
+        <v>61888133.163518459</v>
       </c>
       <c r="M17">
-        <v>1273070098.4773746</v>
+        <v>7370536918.3818331</v>
       </c>
       <c r="N17">
-        <v>4968986648.6279879</v>
+        <v>7318942238.1089144</v>
       </c>
       <c r="O17">
-        <v>7465409801.5517616</v>
+        <v>24392175674.038094</v>
       </c>
       <c r="P17">
-        <v>2598718.9099521809</v>
+        <v>21337139.680116065</v>
       </c>
       <c r="Q17">
-        <v>518880676.89759755</v>
+        <v>990719858.47337103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>45833216.792469583</v>
+        <v>9600.4773434214167</v>
       </c>
       <c r="L18">
-        <v>61888133.163518459</v>
+        <v>38266.691383131059</v>
       </c>
       <c r="M18">
-        <v>7370536918.3818331</v>
+        <v>7275042285.2361631</v>
       </c>
       <c r="N18">
-        <v>7318942238.1089144</v>
+        <v>9570757347.8462524</v>
       </c>
       <c r="O18">
-        <v>24392175674.038094</v>
+        <v>12112090004.878937</v>
       </c>
       <c r="P18">
-        <v>21337139.680116065</v>
+        <v>9846733.1359346434</v>
       </c>
       <c r="Q18">
-        <v>990719858.47337103</v>
+        <v>470283632.88013947</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>9600.4773434214167</v>
+        <v>25428190.928034011</v>
       </c>
       <c r="L19">
-        <v>38266.691383131059</v>
+        <v>34335431.296196871</v>
       </c>
       <c r="M19">
-        <v>7275042285.2361631</v>
+        <v>1236962789.3246891</v>
       </c>
       <c r="N19">
-        <v>9570757347.8462524</v>
+        <v>938015347.69711804</v>
       </c>
       <c r="O19">
-        <v>12112090004.878937</v>
+        <v>1252496335.1625824</v>
       </c>
       <c r="P19">
-        <v>9846733.1359346434</v>
+        <v>4084768.6436157217</v>
       </c>
       <c r="Q19">
-        <v>470283632.88013947</v>
+        <v>963039844.50366735</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>25428190.928034011</v>
+        <v>85293.345618346313</v>
       </c>
       <c r="L20">
-        <v>34335431.296196871</v>
+        <v>115170.74953460274</v>
       </c>
       <c r="M20">
-        <v>1236962789.3246891</v>
+        <v>261404023.84240809</v>
       </c>
       <c r="N20">
-        <v>938015347.69711804</v>
+        <v>662870771.96900964</v>
       </c>
       <c r="O20">
-        <v>1252496335.1625824</v>
+        <v>1167174030.7255652</v>
       </c>
       <c r="P20">
-        <v>4084768.6436157217</v>
+        <v>472694.85008635663</v>
       </c>
       <c r="Q20">
-        <v>963039844.50366735</v>
+        <v>23467516.32994597</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>85293.345618346313</v>
+        <v>988.46631917228888</v>
       </c>
       <c r="L21">
-        <v>115170.74953460274</v>
+        <v>3939.9432157657011</v>
       </c>
       <c r="M21">
-        <v>261404023.84240809</v>
+        <v>3077369259.9629478</v>
       </c>
       <c r="N21">
-        <v>662870771.96900964</v>
+        <v>2939810093.7110219</v>
       </c>
       <c r="O21">
-        <v>1167174030.7255652</v>
+        <v>13093340767.11665</v>
       </c>
       <c r="P21">
-        <v>472694.85008635663</v>
+        <v>13536767.267073056</v>
       </c>
       <c r="Q21">
-        <v>23467516.32994597</v>
+        <v>457926390.7271148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>988.46631917228888</v>
+        <v>20210717.506183945</v>
       </c>
       <c r="L22">
-        <v>3939.9432157657011</v>
+        <v>53909622.582512662</v>
       </c>
       <c r="M22">
-        <v>3077369259.9629478</v>
+        <v>23244037103.494522</v>
       </c>
       <c r="N22">
-        <v>2939810093.7110219</v>
+        <v>2098673804.5958335</v>
       </c>
       <c r="O22">
-        <v>13093340767.11665</v>
+        <v>14963947966.837791</v>
       </c>
       <c r="P22">
-        <v>13536767.267073056</v>
+        <v>8645431.9293012284</v>
       </c>
       <c r="Q22">
-        <v>457926390.7271148</v>
+        <v>469617764.24836379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K23">
-        <v>20210717.506183945</v>
+        <v>2878524.2770361695</v>
       </c>
       <c r="L23">
-        <v>53909622.582512662</v>
+        <v>7678112.235359557</v>
       </c>
       <c r="M23">
-        <v>23244037103.494522</v>
+        <v>1728429611.5289557</v>
       </c>
       <c r="N23">
-        <v>2098673804.5958335</v>
+        <v>295280720.01181757</v>
       </c>
       <c r="O23">
-        <v>14963947966.837791</v>
+        <v>1576360518.0586846</v>
       </c>
       <c r="P23">
-        <v>8645431.9293012284</v>
+        <v>2020519.8719741097</v>
       </c>
       <c r="Q23">
-        <v>469617764.24836379</v>
+        <v>209706066.63280141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K24">
-        <v>2878524.2770361695</v>
+        <v>589526.73014329805</v>
       </c>
       <c r="L24">
-        <v>7678112.235359557</v>
+        <v>1572490.6112115649</v>
       </c>
       <c r="M24">
-        <v>1728429611.5289557</v>
+        <v>11389577659.555063</v>
       </c>
       <c r="N24">
-        <v>295280720.01181757</v>
+        <v>9120141519.5952988</v>
       </c>
       <c r="O24">
-        <v>1576360518.0586846</v>
+        <v>12030116674.248018</v>
       </c>
       <c r="P24">
-        <v>2020519.8719741097</v>
+        <v>11516548.098293064</v>
       </c>
       <c r="Q24">
-        <v>209706066.63280141</v>
+        <v>80140338.552216381</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>589526.73014329805</v>
+        <v>7790.9166015573965</v>
       </c>
       <c r="L25">
-        <v>1572490.6112115649</v>
+        <v>20781.319289320461</v>
       </c>
       <c r="M25">
-        <v>11389577659.555063</v>
+        <v>1367677977.4270518</v>
       </c>
       <c r="N25">
-        <v>9120141519.5952988</v>
+        <v>19415557155.05172</v>
       </c>
       <c r="O25">
-        <v>12030116674.248018</v>
+        <v>19753012111.679474</v>
       </c>
       <c r="P25">
-        <v>11516548.098293064</v>
+        <v>44134141.772179961</v>
       </c>
       <c r="Q25">
-        <v>80140338.552216381</v>
+        <v>1863069356.1369269</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K26">
-        <v>7790.9166015573965</v>
+        <v>2166428.3608621312</v>
       </c>
       <c r="L26">
-        <v>20781.319289320461</v>
+        <v>12100294.991157025</v>
       </c>
       <c r="M26">
-        <v>1367677977.4270518</v>
+        <v>26686529634.595795</v>
       </c>
       <c r="N26">
-        <v>19415557155.05172</v>
+        <v>5602526037.038002</v>
       </c>
       <c r="O26">
-        <v>19753012111.679474</v>
+        <v>13449017632.306343</v>
       </c>
       <c r="P26">
-        <v>44134141.772179961</v>
+        <v>28682928.807853833</v>
       </c>
       <c r="Q26">
-        <v>1863069356.1369269</v>
+        <v>802015633.4125073</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="K27">
-        <v>2166428.3608621312</v>
+        <v>1374527.5713624337</v>
       </c>
       <c r="L27">
-        <v>12100294.991157025</v>
+        <v>3751090.3599220384</v>
       </c>
       <c r="M27">
-        <v>26686529634.595795</v>
+        <v>2631856604.6076617</v>
       </c>
       <c r="N27">
-        <v>5602526037.038002</v>
+        <v>3041544901.9972501</v>
       </c>
       <c r="O27">
-        <v>13449017632.306343</v>
+        <v>3932507690.064404</v>
       </c>
       <c r="P27">
-        <v>28682928.807853833</v>
+        <v>18254077.867497787</v>
       </c>
       <c r="Q27">
-        <v>802015633.4125073</v>
+        <v>1090445581.1975896</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="K28">
-        <v>1374527.5713624337</v>
+        <v>36340.85512554364</v>
       </c>
       <c r="L28">
-        <v>3751090.3599220384</v>
+        <v>144851.57747196499</v>
       </c>
       <c r="M28">
-        <v>2631856604.6076617</v>
+        <v>1955329090.5211396</v>
       </c>
       <c r="N28">
-        <v>3041544901.9972501</v>
+        <v>1202043687.03022</v>
       </c>
       <c r="O28">
-        <v>3932507690.064404</v>
+        <v>4172635345.0184641</v>
       </c>
       <c r="P28">
-        <v>18254077.867497787</v>
+        <v>22152151.290723033</v>
       </c>
       <c r="Q28">
-        <v>1090445581.1975896</v>
+        <v>408632883.32140654</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="K29">
-        <v>36340.85512554364</v>
+        <v>68737.202118534289</v>
       </c>
       <c r="L29">
-        <v>144851.57747196499</v>
+        <v>610028.91647184663</v>
       </c>
       <c r="M29">
-        <v>1955329090.5211396</v>
+        <v>679399572.34809971</v>
       </c>
       <c r="N29">
-        <v>1202043687.03022</v>
+        <v>989091472.7085501</v>
       </c>
       <c r="O29">
-        <v>4172635345.0184641</v>
+        <v>1824699389.5965521</v>
       </c>
       <c r="P29">
-        <v>22152151.290723033</v>
+        <v>12700301.946414873</v>
       </c>
       <c r="Q29">
-        <v>408632883.32140654</v>
+        <v>223357269.54921383</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>68737.202118534289</v>
+        <v>100484.3202610756</v>
       </c>
       <c r="L30">
-        <v>610028.91647184663</v>
+        <v>139464.70542817947</v>
       </c>
       <c r="M30">
-        <v>679399572.34809971</v>
+        <v>4733667268.9461222</v>
       </c>
       <c r="N30">
-        <v>989091472.7085501</v>
+        <v>6559712908.8226519</v>
       </c>
       <c r="O30">
-        <v>1824699389.5965521</v>
+        <v>7869272284.6593103</v>
       </c>
       <c r="P30">
-        <v>12700301.946414873</v>
+        <v>60818049.223066434</v>
       </c>
       <c r="Q30">
-        <v>223357269.54921383</v>
+        <v>1279584288.1275206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K31">
-        <v>100484.3202610756</v>
+        <v>14088280.445939962</v>
       </c>
       <c r="L31">
-        <v>139464.70542817947</v>
+        <v>19553477.371186528</v>
       </c>
       <c r="M31">
-        <v>4733667268.9461222</v>
+        <v>9338027130.3279953</v>
       </c>
       <c r="N31">
-        <v>6559712908.8226519</v>
+        <v>933460072.78718007</v>
       </c>
       <c r="O31">
-        <v>7869272284.6593103</v>
+        <v>2521235187.1692467</v>
       </c>
       <c r="P31">
-        <v>60818049.223066434</v>
+        <v>18868083.741257884</v>
       </c>
       <c r="Q31">
-        <v>1279584288.1275206</v>
+        <v>259739897.26190066</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="K32">
-        <v>14088280.445939962</v>
+        <v>118941.23272573021</v>
       </c>
       <c r="L32">
-        <v>19553477.371186528</v>
+        <v>279253.32900843222</v>
       </c>
       <c r="M32">
-        <v>9338027130.3279953</v>
+        <v>5553767116.0249548</v>
       </c>
       <c r="N32">
-        <v>933460072.78718007</v>
+        <v>22740883934.252277</v>
       </c>
       <c r="O32">
-        <v>2521235187.1692467</v>
+        <v>26209550144.806366</v>
       </c>
       <c r="P32">
-        <v>18868083.741257884</v>
+        <v>209055812.87937909</v>
       </c>
       <c r="Q32">
-        <v>259739897.26190066</v>
+        <v>2957267010.5849843</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>118941.23272573021</v>
+        <v>21988.936351392673</v>
       </c>
       <c r="L33">
-        <v>279253.32900843222</v>
+        <v>58652.804351408406</v>
       </c>
       <c r="M33">
-        <v>5553767116.0249548</v>
+        <v>3357277494.8819456</v>
       </c>
       <c r="N33">
-        <v>22740883934.252277</v>
+        <v>6156493627.1829901</v>
       </c>
       <c r="O33">
-        <v>26209550144.806366</v>
+        <v>7301196599.4075632</v>
       </c>
       <c r="P33">
-        <v>209055812.87937909</v>
+        <v>100899640.16776887</v>
       </c>
       <c r="Q33">
-        <v>2957267010.5849843</v>
+        <v>3249873922.9934068</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K34">
-        <v>21988.936351392673</v>
+        <v>11935572.900812317</v>
       </c>
       <c r="L34">
-        <v>58652.804351408406</v>
+        <v>16116484.435579119</v>
       </c>
       <c r="M34">
-        <v>3357277494.8819456</v>
+        <v>716739526.84037268</v>
       </c>
       <c r="N34">
-        <v>6156493627.1829901</v>
+        <v>2830980395.1429429</v>
       </c>
       <c r="O34">
-        <v>7301196599.4075632</v>
+        <v>4376941845.2913017</v>
       </c>
       <c r="P34">
-        <v>100899640.16776887</v>
+        <v>143353016.08483088</v>
       </c>
       <c r="Q34">
-        <v>3249873922.9934068</v>
+        <v>1054147392.1400725</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K35">
-        <v>11935572.900812317</v>
+        <v>2107.7428559933919</v>
       </c>
       <c r="L35">
-        <v>16116484.435579119</v>
+        <v>4384.1051404662558</v>
       </c>
       <c r="M35">
-        <v>716739526.84037268</v>
+        <v>158198222.65985265</v>
       </c>
       <c r="N35">
-        <v>2830980395.1429429</v>
+        <v>249422098.91773474</v>
       </c>
       <c r="O35">
-        <v>4376941845.2913017</v>
+        <v>292696603.63391906</v>
       </c>
       <c r="P35">
-        <v>143353016.08483088</v>
+        <v>762958.42384594458</v>
       </c>
       <c r="Q35">
-        <v>1054147392.1400725</v>
+        <v>16164035.009301951</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="K36">
-        <v>2107.7428559933919</v>
+        <v>314936.79875185777</v>
       </c>
       <c r="L36">
-        <v>4384.1051404662558</v>
+        <v>811277.19358478568</v>
       </c>
       <c r="M36">
-        <v>158198222.65985265</v>
+        <v>4635617473.6214733</v>
       </c>
       <c r="N36">
-        <v>249422098.91773474</v>
+        <v>1380607761.4533112</v>
       </c>
       <c r="O36">
-        <v>292696603.63391906</v>
+        <v>2134447049.726053</v>
       </c>
       <c r="P36">
-        <v>762958.42384594458</v>
+        <v>11504237.337847713</v>
       </c>
       <c r="Q36">
-        <v>16164035.009301951</v>
+        <v>76375335.415532187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="K37">
-        <v>314936.79875185777</v>
+        <v>91117.578012331389</v>
       </c>
       <c r="L37">
-        <v>811277.19358478568</v>
+        <v>243045.02003801151</v>
       </c>
       <c r="M37">
-        <v>4635617473.6214733</v>
+        <v>5258576112.800808</v>
       </c>
       <c r="N37">
-        <v>1380607761.4533112</v>
+        <v>6060088911.5225477</v>
       </c>
       <c r="O37">
-        <v>2134447049.726053</v>
+        <v>7212859670.6222897</v>
       </c>
       <c r="P37">
-        <v>11504237.337847713</v>
+        <v>17583453.748498078</v>
       </c>
       <c r="Q37">
-        <v>76375335.415532187</v>
+        <v>403556882.32980388</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="K38">
-        <v>91117.578012331389</v>
+        <v>26.865407941423623</v>
       </c>
       <c r="L38">
-        <v>243045.02003801151</v>
+        <v>107.08324544648249</v>
       </c>
       <c r="M38">
-        <v>5258576112.800808</v>
+        <v>95400397.363346085</v>
       </c>
       <c r="N38">
-        <v>6060088911.5225477</v>
+        <v>1011205116.0305729</v>
       </c>
       <c r="O38">
-        <v>7212859670.6222897</v>
+        <v>1758328648.113101</v>
       </c>
       <c r="P38">
-        <v>17583453.748498078</v>
+        <v>30514841.367504701</v>
       </c>
       <c r="Q38">
-        <v>403556882.32980388</v>
+        <v>359922992.06079412</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K39">
-        <v>26.865407941423623</v>
+        <v>1988.9893256430512</v>
       </c>
       <c r="L39">
-        <v>107.08324544648249</v>
+        <v>7927.9433683924171</v>
       </c>
       <c r="M39">
-        <v>95400397.363346085</v>
+        <v>2115375586.2987034</v>
       </c>
       <c r="N39">
-        <v>1011205116.0305729</v>
+        <v>1844557127.3171234</v>
       </c>
       <c r="O39">
-        <v>1758328648.113101</v>
+        <v>5599530600.291544</v>
       </c>
       <c r="P39">
-        <v>30514841.367504701</v>
+        <v>7548875.7857852448</v>
       </c>
       <c r="Q39">
-        <v>359922992.06079412</v>
+        <v>188775849.06628573</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J40" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>1988.9893256430512</v>
+        <v>116613.16602106349</v>
       </c>
       <c r="L40">
-        <v>7927.9433683924171</v>
+        <v>318237.72182888241</v>
       </c>
       <c r="M40">
-        <v>2115375586.2987034</v>
+        <v>7078826293.7083092</v>
       </c>
       <c r="N40">
-        <v>1844557127.3171234</v>
+        <v>30580047682.136097</v>
       </c>
       <c r="O40">
-        <v>5599530600.291544</v>
+        <v>43333676725.844238</v>
       </c>
       <c r="P40">
-        <v>7548875.7857852448</v>
+        <v>282718545.65090203</v>
       </c>
       <c r="Q40">
-        <v>188775849.06628573</v>
+        <v>3126017043.1166129</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K41">
-        <v>116613.16602106349</v>
+        <v>2641303.9499925142</v>
       </c>
       <c r="L41">
-        <v>318237.72182888241</v>
+        <v>3665931.9222661322</v>
       </c>
       <c r="M41">
-        <v>7078826293.7083092</v>
+        <v>2183555774.2691259</v>
       </c>
       <c r="N41">
-        <v>30580047682.136097</v>
+        <v>2316403586.0519538</v>
       </c>
       <c r="O41">
-        <v>43333676725.844238</v>
+        <v>2379278787.8253641</v>
       </c>
       <c r="P41">
-        <v>282718545.65090203</v>
+        <v>25977313.769257337</v>
       </c>
       <c r="Q41">
-        <v>3126017043.1166129</v>
+        <v>25963862784.153816</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="K42">
-        <v>2641303.9499925142</v>
+        <v>34886.045315286356</v>
       </c>
       <c r="L42">
-        <v>3665931.9222661322</v>
+        <v>93054.268645935648</v>
       </c>
       <c r="M42">
-        <v>2183555774.2691259</v>
+        <v>1937039764.6200025</v>
       </c>
       <c r="N42">
-        <v>2316403586.0519538</v>
+        <v>1956254315.6187224</v>
       </c>
       <c r="O42">
-        <v>2379278787.8253641</v>
+        <v>2081346372.8598316</v>
       </c>
       <c r="P42">
-        <v>25977313.769257337</v>
+        <v>37438563.761328541</v>
       </c>
       <c r="Q42">
-        <v>25963862784.153816</v>
+        <v>216444951.50947747</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>34886.045315286356</v>
+        <v>13266889.881567331</v>
       </c>
       <c r="L43">
-        <v>93054.268645935648</v>
+        <v>18413448.829378948</v>
       </c>
       <c r="M43">
-        <v>1937039764.6200025</v>
+        <v>2795781568.3059931</v>
       </c>
       <c r="N43">
-        <v>1956254315.6187224</v>
+        <v>3615211345.8092065</v>
       </c>
       <c r="O43">
-        <v>2081346372.8598316</v>
+        <v>3620291185.464076</v>
       </c>
       <c r="P43">
-        <v>37438563.761328541</v>
+        <v>43581896.053874217</v>
       </c>
       <c r="Q43">
-        <v>216444951.50947747</v>
+        <v>463981837.16979945</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>13266889.881567331</v>
+        <v>1436916.8962362793</v>
       </c>
       <c r="L44">
-        <v>18413448.829378948</v>
+        <v>1994332.9579958254</v>
       </c>
       <c r="M44">
-        <v>2795781568.3059931</v>
+        <v>7690973438.5809059</v>
       </c>
       <c r="N44">
-        <v>3615211345.8092065</v>
+        <v>11889276849.016993</v>
       </c>
       <c r="O44">
-        <v>3620291185.464076</v>
+        <v>18502605598.04702</v>
       </c>
       <c r="P44">
-        <v>43581896.053874217</v>
+        <v>18621504.054669078</v>
       </c>
       <c r="Q44">
-        <v>463981837.16979945</v>
+        <v>630827983.47226107</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="K45">
-        <v>1436916.8962362793</v>
+        <v>6611043.5529440343</v>
       </c>
       <c r="L45">
-        <v>1994332.9579958254</v>
+        <v>8926825.8347872831</v>
       </c>
       <c r="M45">
-        <v>7690973438.5809059</v>
+        <v>4018557291.550961</v>
       </c>
       <c r="N45">
-        <v>11889276849.016993</v>
+        <v>13543182633.333107</v>
       </c>
       <c r="O45">
-        <v>18502605598.04702</v>
+        <v>21343567833.693756</v>
       </c>
       <c r="P45">
-        <v>18621504.054669078</v>
+        <v>35356024.729281023</v>
       </c>
       <c r="Q45">
-        <v>630827983.47226107</v>
+        <v>1089931685.5934117</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K46">
-        <v>6611043.5529440343</v>
+        <v>8307064.9522866216</v>
       </c>
       <c r="L46">
-        <v>8926825.8347872831</v>
+        <v>11216946.527950881</v>
       </c>
       <c r="M46">
-        <v>4018557291.550961</v>
+        <v>2450057767.0331631</v>
       </c>
       <c r="N46">
-        <v>13543182633.333107</v>
+        <v>7076305332.3843737</v>
       </c>
       <c r="O46">
-        <v>21343567833.693756</v>
+        <v>13035233744.394693</v>
       </c>
       <c r="P46">
-        <v>35356024.729281023</v>
+        <v>275063804.764153</v>
       </c>
       <c r="Q46">
-        <v>1089931685.5934117</v>
+        <v>1580248549.8247914</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K47">
-        <v>8307064.9522866216</v>
+        <v>6086.1963717252083</v>
       </c>
       <c r="L47">
-        <v>11216946.527950881</v>
+        <v>24259.064411402484</v>
       </c>
       <c r="M47">
-        <v>2450057767.0331631</v>
+        <v>2861509906.7090659</v>
       </c>
       <c r="N47">
-        <v>7076305332.3843737</v>
+        <v>1493712299.1514397</v>
       </c>
       <c r="O47">
-        <v>13035233744.394693</v>
+        <v>4324546614.5051928</v>
       </c>
       <c r="P47">
-        <v>275063804.764153</v>
+        <v>31931759.848868102</v>
       </c>
       <c r="Q47">
-        <v>1580248549.8247914</v>
+        <v>360167278.93933254</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K48">
-        <v>6086.1963717252083</v>
+        <v>121886.58843968091</v>
       </c>
       <c r="L48">
-        <v>24259.064411402484</v>
+        <v>286168.51198886574</v>
       </c>
       <c r="M48">
-        <v>2861509906.7090659</v>
+        <v>12722017057.247293</v>
       </c>
       <c r="N48">
-        <v>1493712299.1514397</v>
+        <v>75512067802.194733</v>
       </c>
       <c r="O48">
-        <v>4324546614.5051928</v>
+        <v>95624783649.69812</v>
       </c>
       <c r="P48">
-        <v>31931759.848868102</v>
+        <v>2880113536.669549</v>
       </c>
       <c r="Q48">
-        <v>360167278.93933254</v>
+        <v>23659060554.326973</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="K49">
-        <v>121886.58843968091</v>
+        <v>3073484.0384656894</v>
       </c>
       <c r="L49">
-        <v>286168.51198886574</v>
+        <v>8198143.6075371653</v>
       </c>
       <c r="M49">
-        <v>12722017057.247293</v>
+        <v>9235065590.1879883</v>
       </c>
       <c r="N49">
-        <v>75512067802.194733</v>
+        <v>4682718562.4357243</v>
       </c>
       <c r="O49">
-        <v>95624783649.69812</v>
+        <v>9006159147.993166</v>
       </c>
       <c r="P49">
-        <v>2880113536.669549</v>
+        <v>85754475.964455485</v>
       </c>
       <c r="Q49">
-        <v>23659060554.326973</v>
+        <v>94976895574.746582</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K50">
-        <v>3073484.0384656894</v>
+        <v>244176.80273373649</v>
       </c>
       <c r="L50">
-        <v>8198143.6075371653</v>
+        <v>666359.31496309408</v>
       </c>
       <c r="M50">
-        <v>9235065590.1879883</v>
+        <v>2224558208.8622451</v>
       </c>
       <c r="N50">
-        <v>4682718562.4357243</v>
+        <v>1026092874.7627144</v>
       </c>
       <c r="O50">
-        <v>9006159147.993166</v>
+        <v>2193515906.2440734</v>
       </c>
       <c r="P50">
-        <v>85754475.964455485</v>
+        <v>18588160.612092916</v>
       </c>
       <c r="Q50">
-        <v>94976895574.746582</v>
+        <v>408452279.29417968</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="J51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>244176.80273373649</v>
+        <v>240504.60431777878</v>
       </c>
       <c r="L51">
-        <v>666359.31496309408</v>
+        <v>333802.3654653214</v>
       </c>
       <c r="M51">
-        <v>2224558208.8622451</v>
+        <v>381814055.45190519</v>
       </c>
       <c r="N51">
-        <v>1026092874.7627144</v>
+        <v>888003987.07463813</v>
       </c>
       <c r="O51">
-        <v>2193515906.2440734</v>
+        <v>893072112.23021507</v>
       </c>
       <c r="P51">
-        <v>18588160.612092916</v>
+        <v>5297992.8568862602</v>
       </c>
       <c r="Q51">
-        <v>408452279.29417968</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" t="s">
-        <v>155</v>
-      </c>
-      <c r="J52" t="s">
-        <v>98</v>
-      </c>
-      <c r="K52">
-        <v>240504.60431777878</v>
-      </c>
-      <c r="L52">
-        <v>333802.3654653214</v>
-      </c>
-      <c r="M52">
-        <v>381814055.45190519</v>
-      </c>
-      <c r="N52">
-        <v>888003987.07463813</v>
-      </c>
-      <c r="O52">
-        <v>893072112.23021507</v>
-      </c>
-      <c r="P52">
-        <v>5297992.8568862602</v>
-      </c>
-      <c r="Q52">
         <v>95987554.945462793</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="M1:Q1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -3027,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,271 +2973,292 @@
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="5"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M2" t="s">
-        <v>168</v>
-      </c>
-      <c r="N2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" t="s">
-        <v>170</v>
-      </c>
-      <c r="P2" t="s">
-        <v>171</v>
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2">
+        <v>2018</v>
+      </c>
+      <c r="K2">
+        <v>2025</v>
+      </c>
+      <c r="L2">
+        <v>2020</v>
+      </c>
+      <c r="M2">
+        <v>11000</v>
+      </c>
+      <c r="N2">
+        <v>1200</v>
+      </c>
+      <c r="P2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="K3">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M3">
-        <v>11000</v>
+        <v>1558</v>
       </c>
       <c r="N3">
-        <v>1200</v>
+        <v>13333</v>
+      </c>
+      <c r="O3">
+        <v>1350</v>
       </c>
       <c r="P3">
-        <v>0.4</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="H4">
+        <v>0.6</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="J4">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="K4">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="L4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M4">
-        <v>1558</v>
+        <v>1209218.5863059745</v>
       </c>
       <c r="N4">
-        <v>13333</v>
-      </c>
-      <c r="O4">
-        <v>1350</v>
+        <v>2110267.4136940255</v>
       </c>
       <c r="P4">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>153</v>
+      </c>
+      <c r="F5">
+        <v>0.95</v>
+      </c>
+      <c r="G5">
+        <v>0.95</v>
       </c>
       <c r="H5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
-        <v>0.15</v>
+        <v>0.91</v>
       </c>
       <c r="J5">
         <v>2018</v>
       </c>
       <c r="K5">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="L5">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="M5">
-        <v>1209218.5863059745</v>
+        <v>184098.81832046947</v>
       </c>
       <c r="N5">
-        <v>2110267.4136940255</v>
+        <v>80204.181679530549</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="F6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I6">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="J6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="K6">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="L6">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="M6">
-        <v>184098.81832046947</v>
+        <v>27727.460283476539</v>
       </c>
       <c r="N6">
-        <v>80204.181679530549</v>
+        <v>236575.53971652346</v>
       </c>
       <c r="P6">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3319,11 +3266,8 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>0.7</v>
-      </c>
       <c r="I7">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="J7">
         <v>2015</v>
@@ -3332,115 +3276,115 @@
         <v>2025</v>
       </c>
       <c r="L7">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M7">
-        <v>27727.460283476539</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>236575.53971652346</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
       </c>
       <c r="I8">
-        <v>0.76</v>
+        <v>0.21</v>
       </c>
       <c r="J8">
         <v>2015</v>
       </c>
       <c r="K8">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L8">
         <v>2015</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>545004.52801988786</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1094846.4719801121</v>
       </c>
       <c r="P8">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9">
-        <v>0.8</v>
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="J9">
         <v>2015</v>
       </c>
       <c r="K9">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L9">
         <v>2015</v>
       </c>
       <c r="M9">
-        <v>545004.52801988786</v>
+        <v>814592.7738002605</v>
       </c>
       <c r="N9">
-        <v>1094846.4719801121</v>
+        <v>825258.2261997395</v>
       </c>
       <c r="P9">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3449,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.6</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="J10">
         <v>2015</v>
@@ -3461,30 +3405,30 @@
         <v>2015</v>
       </c>
       <c r="M10">
-        <v>814592.7738002605</v>
+        <v>37200.153761330155</v>
       </c>
       <c r="N10">
-        <v>825258.2261997395</v>
+        <v>10506.846238669841</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3493,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.47000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
         <v>2015</v>
@@ -3505,30 +3449,27 @@
         <v>2015</v>
       </c>
       <c r="M11">
-        <v>37200.153761330155</v>
+        <v>574771.14896427921</v>
       </c>
       <c r="N11">
-        <v>10506.846238669841</v>
+        <v>2744714.8510357207</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3537,39 +3478,39 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="K12">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L12">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="M12">
-        <v>574771.14896427921</v>
+        <v>261254.34093679659</v>
       </c>
       <c r="N12">
-        <v>2744714.8510357207</v>
+        <v>3048.6590632034122</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3578,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="J13">
         <v>2017</v>
@@ -3590,27 +3531,27 @@
         <v>2017</v>
       </c>
       <c r="M13">
-        <v>261254.34093679659</v>
+        <v>4529.3557815602426</v>
       </c>
       <c r="N13">
-        <v>3048.6590632034122</v>
+        <v>259773.64421843976</v>
       </c>
       <c r="P13">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3619,22 +3560,22 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.94000000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="K14">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L14">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="M14">
-        <v>4529.3557815602426</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>259773.64421843976</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3642,16 +3583,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3660,39 +3601,39 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="J15">
-        <v>2005</v>
+        <v>2018</v>
       </c>
       <c r="K15">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L15">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1623495.6235948068</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>16355.37640519335</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3701,39 +3642,39 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="J16">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K16">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="L16">
         <v>2018</v>
       </c>
       <c r="M16">
-        <v>1623495.6235948068</v>
+        <v>109063.26891512153</v>
       </c>
       <c r="N16">
-        <v>16355.37640519335</v>
+        <v>1530787.7310848786</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3742,238 +3683,235 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="J17">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="K17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L17">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="M17">
-        <v>109063.26891512153</v>
+        <v>28088.045032479266</v>
       </c>
       <c r="N17">
-        <v>1530787.7310848786</v>
+        <v>19618.954967520734</v>
       </c>
       <c r="P17">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="H18">
+        <v>0.12</v>
       </c>
       <c r="I18">
-        <v>0.76</v>
+        <v>0.21</v>
       </c>
       <c r="J18">
         <v>2015</v>
       </c>
       <c r="K18">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L18">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="M18">
-        <v>28088.045032479266</v>
+        <v>2021033.4696043313</v>
       </c>
       <c r="N18">
-        <v>19618.954967520734</v>
+        <v>1298452.5303956687</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H19">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="I19">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="J19">
         <v>2015</v>
       </c>
       <c r="K19">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L19">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="M19">
-        <v>2021033.4696043313</v>
+        <v>251813.3497402785</v>
       </c>
       <c r="N19">
-        <v>1298452.5303956687</v>
+        <v>12489.650259721515</v>
       </c>
       <c r="P19">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H20">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I20">
-        <v>0.6</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="J20">
         <v>2015</v>
       </c>
       <c r="K20">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M20">
-        <v>251813.3497402785</v>
+        <v>29144.618624426188</v>
       </c>
       <c r="N20">
-        <v>12489.650259721515</v>
+        <v>235158.38137557381</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H21">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I21">
-        <v>0.47000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="J21">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="K21">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="L21">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="M21">
-        <v>29144.618624426188</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>235158.38137557381</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J22">
         <v>2018</v>
       </c>
       <c r="K22">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="L22">
         <v>2019</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1542974.817386897</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>96876.182613102996</v>
       </c>
       <c r="P22">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I23">
-        <v>0.3</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="J23">
         <v>2018</v>
@@ -3985,89 +3923,92 @@
         <v>2019</v>
       </c>
       <c r="M23">
-        <v>1542974.817386897</v>
+        <v>1258605.9073582559</v>
       </c>
       <c r="N23">
-        <v>96876.182613102996</v>
+        <v>381245.09264174401</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H24">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I24">
-        <v>0.94000000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="J24">
         <v>2018</v>
       </c>
       <c r="K24">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L24">
         <v>2019</v>
       </c>
       <c r="M24">
-        <v>1258605.9073582559</v>
+        <v>25476.428678700202</v>
       </c>
       <c r="N24">
-        <v>381245.09264174401</v>
+        <v>22230.571321299798</v>
       </c>
       <c r="P24">
-        <v>0.88300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25">
-        <v>0.7</v>
+        <v>150</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="J25">
+        <v>2005</v>
+      </c>
+      <c r="K25">
         <v>2018</v>
       </c>
-      <c r="K25">
-        <v>2025</v>
-      </c>
       <c r="L25">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M25">
-        <v>25476.428678700202</v>
+        <v>739349.11745452916</v>
       </c>
       <c r="N25">
-        <v>22230.571321299798</v>
+        <v>2580136.8825454707</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4075,16 +4016,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4093,48 +4034,51 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="J26">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="K26">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="L26">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M26">
-        <v>739349.11745452916</v>
+        <v>140273.75037513993</v>
       </c>
       <c r="N26">
-        <v>2580136.8825454707</v>
+        <v>124029.24962486007</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I27">
-        <v>0.76</v>
+        <v>0.21</v>
       </c>
       <c r="J27">
         <v>2015</v>
@@ -4146,80 +4090,71 @@
         <v>2017</v>
       </c>
       <c r="M27">
-        <v>140273.75037513993</v>
+        <v>3562.2554504317172</v>
       </c>
       <c r="N27">
-        <v>124029.24962486007</v>
+        <v>260740.74454956828</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28">
-        <v>0.95</v>
-      </c>
-      <c r="G28">
-        <v>0.95</v>
+        <v>163</v>
+      </c>
+      <c r="H28">
+        <v>0.8</v>
       </c>
       <c r="I28">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="J28">
         <v>2015</v>
       </c>
       <c r="K28">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L28">
-        <v>2017</v>
-      </c>
-      <c r="M28">
-        <v>3562.2554504317172</v>
-      </c>
-      <c r="N28">
-        <v>260740.74454956828</v>
+        <v>2015</v>
       </c>
       <c r="P28">
-        <v>0.5</v>
+        <v>0.49600000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H29">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I29">
-        <v>0.6</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="J29">
         <v>2015</v>
@@ -4230,46 +4165,52 @@
       <c r="L29">
         <v>2015</v>
       </c>
+      <c r="M29">
+        <v>1527902.4738061246</v>
+      </c>
+      <c r="N29">
+        <v>111948.5261938753</v>
+      </c>
       <c r="P29">
-        <v>0.49600000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30">
-        <v>0.9</v>
+        <v>150</v>
+      </c>
+      <c r="F30">
+        <v>0.99</v>
+      </c>
+      <c r="G30">
+        <v>0.99</v>
       </c>
       <c r="I30">
-        <v>0.47000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="J30">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K30">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L30">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="M30">
-        <v>1527902.4738061246</v>
+        <v>752485.53816878912</v>
       </c>
       <c r="N30">
-        <v>111948.5261938753</v>
+        <v>887365.46183121088</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -4277,154 +4218,154 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31">
-        <v>0.99</v>
-      </c>
-      <c r="G31">
-        <v>0.99</v>
+        <v>163</v>
+      </c>
+      <c r="H31">
+        <v>0.81</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J31">
         <v>2013</v>
       </c>
       <c r="K31">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="L31">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="M31">
-        <v>752485.53816878912</v>
+        <v>13520.584701904279</v>
       </c>
       <c r="N31">
-        <v>887365.46183121088</v>
+        <v>34186.415298095722</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32">
-        <v>0.81</v>
+        <v>150</v>
+      </c>
+      <c r="F32">
+        <v>0.85</v>
+      </c>
+      <c r="G32">
+        <v>0.85</v>
       </c>
       <c r="I32">
-        <v>0.3</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="J32">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="K32">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="L32">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M32">
-        <v>13520.584701904279</v>
+        <v>8714.9533087395212</v>
       </c>
       <c r="N32">
-        <v>34186.415298095722</v>
+        <v>192816.04669126048</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33">
-        <v>0.85</v>
-      </c>
-      <c r="G33">
-        <v>0.85</v>
+        <v>163</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0.94000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J33">
+        <v>2016</v>
+      </c>
+      <c r="K33">
+        <v>2030</v>
+      </c>
+      <c r="L33">
         <v>2017</v>
       </c>
-      <c r="K33">
-        <v>2018</v>
-      </c>
-      <c r="L33">
-        <v>2018</v>
-      </c>
       <c r="M33">
-        <v>8714.9533087395212</v>
+        <v>5030.1715149841002</v>
       </c>
       <c r="N33">
-        <v>192816.04669126048</v>
+        <v>70864.828485015896</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H34">
+        <v>159</v>
+      </c>
+      <c r="F34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="J34">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="K34">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L34">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="M34">
         <v>5030.1715149841002</v>
@@ -4433,62 +4374,56 @@
         <v>70864.828485015896</v>
       </c>
       <c r="P34">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
       <c r="I35">
-        <v>0.69000000000000006</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="J35">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="K35">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L35">
-        <v>2012</v>
-      </c>
-      <c r="M35">
-        <v>5030.1715149841002</v>
-      </c>
-      <c r="N35">
-        <v>70864.828485015896</v>
+        <v>2018</v>
       </c>
       <c r="P35">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4497,98 +4432,104 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0.82000000000000006</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J36">
         <v>2017</v>
       </c>
       <c r="K36">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="L36">
         <v>2018</v>
       </c>
+      <c r="M36">
+        <v>18420.103830501779</v>
+      </c>
+      <c r="N36">
+        <v>12437.896169498223</v>
+      </c>
       <c r="P36">
-        <v>1</v>
+        <v>6.1699999999999998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="H37">
+        <v>0.159</v>
       </c>
       <c r="I37">
-        <v>0.57999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="J37">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="K37">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="L37">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="M37">
-        <v>18420.103830501779</v>
+        <v>21253.709283596334</v>
       </c>
       <c r="N37">
-        <v>12437.896169498223</v>
+        <v>9604.290716403666</v>
       </c>
       <c r="P37">
-        <v>6.1699999999999998E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H38">
-        <v>0.159</v>
+        <v>0.75</v>
       </c>
       <c r="I38">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="J38">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="K38">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L38">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="M38">
-        <v>21253.709283596334</v>
+        <v>260823.50223769023</v>
       </c>
       <c r="N38">
-        <v>9604.290716403666</v>
+        <v>12190.497762309758</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -4596,34 +4537,31 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
-      </c>
-      <c r="H39">
-        <v>0.75</v>
+        <v>152</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="J39">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="K39">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L39">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="M39">
         <v>260823.50223769023</v>
@@ -4632,42 +4570,42 @@
         <v>12190.497762309758</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="F40">
+        <v>0.71</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="I40">
-        <v>0.39</v>
+        <v>0.86</v>
       </c>
       <c r="J40">
         <v>2015</v>
       </c>
       <c r="K40">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L40">
-        <v>2015</v>
-      </c>
-      <c r="M40">
-        <v>260823.50223769023</v>
-      </c>
-      <c r="N40">
-        <v>12190.497762309758</v>
+        <v>2016</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -4675,101 +4613,104 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F41">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="G41">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="I41">
-        <v>0.86</v>
+        <v>0.46</v>
       </c>
       <c r="J41">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="K41">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="L41">
-        <v>2016</v>
+        <v>2018</v>
+      </c>
+      <c r="M41">
+        <v>2435.0792096809209</v>
+      </c>
+      <c r="N41">
+        <v>16574.110790319079</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0.46</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="J42">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="K42">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="L42">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M42">
-        <v>2435.0792096809209</v>
+        <v>3577.0205410445274</v>
       </c>
       <c r="N42">
-        <v>16574.110790319079</v>
+        <v>15432.169458955472</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4778,80 +4719,80 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>0.94000000000000006</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="J43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K43">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="L43">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="M43">
-        <v>3577.0205410445274</v>
+        <v>45289.348484583432</v>
       </c>
       <c r="N43">
-        <v>15432.169458955472</v>
+        <v>32682.651515416568</v>
       </c>
       <c r="P43">
-        <v>0.79</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="I44">
-        <v>0.69000000000000006</v>
+        <v>0.42</v>
       </c>
       <c r="J44">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K44">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L44">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="M44">
-        <v>45289.348484583432</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>32682.651515416568</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F45">
         <v>0.86</v>
@@ -4860,83 +4801,86 @@
         <v>0.86</v>
       </c>
       <c r="I45">
-        <v>0.42</v>
+        <v>0.88</v>
       </c>
       <c r="J45">
         <v>2013</v>
       </c>
       <c r="K45">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="L45">
         <v>2017</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>303878.5938430645</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>501599.4061569355</v>
       </c>
       <c r="P45">
-        <v>0.74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D46" t="s">
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0.9</v>
+      </c>
+      <c r="J46">
+        <v>2011</v>
+      </c>
+      <c r="K46">
+        <v>2021</v>
+      </c>
+      <c r="L46">
+        <v>2018</v>
+      </c>
+      <c r="M46">
+        <v>451204.69109967712</v>
+      </c>
+      <c r="N46">
+        <v>354273.30890032288</v>
+      </c>
+      <c r="P46">
         <v>0.86</v>
-      </c>
-      <c r="G46">
-        <v>0.86</v>
-      </c>
-      <c r="I46">
-        <v>0.88</v>
-      </c>
-      <c r="J46">
-        <v>2013</v>
-      </c>
-      <c r="K46">
-        <v>2050</v>
-      </c>
-      <c r="L46">
-        <v>2017</v>
-      </c>
-      <c r="M46">
-        <v>303878.5938430645</v>
-      </c>
-      <c r="N46">
-        <v>501599.4061569355</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4945,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="J47">
         <v>2011</v>
@@ -4957,54 +4901,51 @@
         <v>2018</v>
       </c>
       <c r="M47">
-        <v>451204.69109967712</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>354273.30890032288</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="I48">
-        <v>0.96</v>
+        <v>0.43</v>
       </c>
       <c r="J48">
+        <v>2002</v>
+      </c>
+      <c r="K48">
+        <v>2020</v>
+      </c>
+      <c r="L48">
         <v>2011</v>
       </c>
-      <c r="K48">
-        <v>2021</v>
-      </c>
-      <c r="L48">
-        <v>2018</v>
-      </c>
       <c r="M48">
-        <v>0</v>
+        <v>481657.87875209423</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>486942.12124790577</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -5012,16 +4953,19 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F49">
         <v>0.65</v>
@@ -5030,42 +4974,42 @@
         <v>0.65</v>
       </c>
       <c r="I49">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
       <c r="J49">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="K49">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L49">
         <v>2011</v>
       </c>
       <c r="M49">
-        <v>481657.87875209423</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>486942.12124790577</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F50">
         <v>0.65</v>
@@ -5074,16 +5018,16 @@
         <v>0.65</v>
       </c>
       <c r="I50">
-        <v>0.76</v>
+        <v>0.25</v>
       </c>
       <c r="J50">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="K50">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="L50">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5091,236 +5035,233 @@
       <c r="N50">
         <v>0</v>
       </c>
+      <c r="O50">
+        <v>21752.5</v>
+      </c>
       <c r="P50">
-        <v>0.3</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F51">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="J51">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="K51">
         <v>2025</v>
       </c>
       <c r="L51">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>32319.716640771392</v>
       </c>
       <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>21752.5</v>
+        <v>364406.28335922863</v>
       </c>
       <c r="P51">
-        <v>0.35799999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D52" t="s">
+        <v>156</v>
       </c>
       <c r="E52" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0.67</v>
+        <v>0.34</v>
       </c>
       <c r="J52">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="K52">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L52">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="M52">
-        <v>32319.716640771392</v>
+        <v>413573.83935666631</v>
       </c>
       <c r="N52">
-        <v>364406.28335922863</v>
+        <v>244312.16064333371</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0.32600000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E53" t="s">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="J53">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="K53">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L53">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="M53">
-        <v>413573.83935666631</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>244312.16064333371</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>0.32600000000000001</v>
+        <v>5.4000000000000006E-2</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I54">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>2015</v>
       </c>
       <c r="K54">
-        <v>2020</v>
+        <v>2033</v>
       </c>
       <c r="L54">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>638079.70206497097</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>30833.297935029001</v>
       </c>
       <c r="P54">
-        <v>5.4000000000000006E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F55">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="J55">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="K55">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="L55">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="M55">
-        <v>638079.70206497097</v>
+        <v>370051.54090144561</v>
       </c>
       <c r="N55">
-        <v>30833.297935029001</v>
+        <v>1034948.4590985543</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0.30809999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5329,63 +5270,63 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0.84</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J56">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="K56">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="L56">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="M56">
-        <v>370051.54090144561</v>
+        <v>1349446.6608923262</v>
       </c>
       <c r="N56">
-        <v>1034948.4590985543</v>
+        <v>94113.339107673848</v>
       </c>
       <c r="P56">
-        <v>0.30809999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I57">
-        <v>0.57999999999999996</v>
+        <v>0.74</v>
       </c>
       <c r="J57">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="K57">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="L57">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="M57">
-        <v>1349446.6608923262</v>
+        <v>10470.424093308253</v>
       </c>
       <c r="N57">
-        <v>94113.339107673848</v>
+        <v>58169.575906691745</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -5393,57 +5334,60 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0.74</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J58">
         <v>2017</v>
       </c>
       <c r="K58">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L58">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M58">
-        <v>10470.424093308253</v>
+        <v>7751.7100603643785</v>
       </c>
       <c r="N58">
-        <v>58169.575906691745</v>
+        <v>448181.28993963561</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D59" t="s">
+        <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -5452,110 +5396,110 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0.28999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="J59">
         <v>2017</v>
       </c>
       <c r="K59">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="L59">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="M59">
-        <v>7751.7100603643785</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>448181.28993963561</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>0.41000000000000003</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I60">
-        <v>0.85</v>
+        <v>0.26</v>
       </c>
       <c r="J60">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="K60">
-        <v>2050</v>
+        <v>2026</v>
       </c>
       <c r="L60">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>78994.82719848564</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>272758.17280151439</v>
       </c>
       <c r="P60">
-        <v>0.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="J61">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K61">
-        <v>2026</v>
+        <v>2035</v>
       </c>
       <c r="L61">
         <v>2016</v>
       </c>
       <c r="M61">
-        <v>78994.82719848564</v>
+        <v>498454.43322806311</v>
       </c>
       <c r="N61">
-        <v>272758.17280151439</v>
+        <v>217932.56677193692</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -5563,19 +5507,16 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -5584,39 +5525,39 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="J62">
         <v>2015</v>
       </c>
       <c r="K62">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="L62">
         <v>2016</v>
       </c>
       <c r="M62">
-        <v>498454.43322806311</v>
+        <v>741093.00013842876</v>
       </c>
       <c r="N62">
-        <v>217932.56677193692</v>
+        <v>1128906.9998615712</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -5625,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>0.36</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="J63">
         <v>2015</v>
@@ -5637,36 +5578,36 @@
         <v>2016</v>
       </c>
       <c r="M63">
-        <v>741093.00013842876</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1128906.9998615712</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I64">
-        <v>0.95000000000000007</v>
+        <v>0.34</v>
       </c>
       <c r="J64">
         <v>2015</v>
@@ -5684,21 +5625,24 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D65" t="s">
+        <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F65">
         <v>0.95</v>
@@ -5707,7 +5651,7 @@
         <v>0.95</v>
       </c>
       <c r="I65">
-        <v>0.34</v>
+        <v>0.91</v>
       </c>
       <c r="J65">
         <v>2015</v>
@@ -5725,30 +5669,30 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0.47789999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F66">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="G66">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="I66">
         <v>0.91</v>
@@ -5769,65 +5713,65 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>0.47789999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F67">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0.91</v>
+        <v>0.48</v>
       </c>
       <c r="J67">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="K67">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L67">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>26056783.910288956</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>879216.08971104492</v>
       </c>
       <c r="P67">
-        <v>0.56000000000000005</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>156</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -5836,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="J68">
         <v>2010</v>
@@ -5848,39 +5792,33 @@
         <v>2018</v>
       </c>
       <c r="M68">
-        <v>26056783.910288956</v>
+        <v>75011.418885668551</v>
       </c>
       <c r="N68">
-        <v>879216.08971104492</v>
+        <v>10188.581114331457</v>
       </c>
       <c r="P68">
-        <v>0.79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
       <c r="I69">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="J69">
         <v>2010</v>
@@ -5889,68 +5827,74 @@
         <v>2030</v>
       </c>
       <c r="L69">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="M69">
-        <v>75011.418885668551</v>
+        <v>80105.165547396828</v>
       </c>
       <c r="N69">
-        <v>10188.581114331457</v>
+        <v>128381.83445260317</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
       <c r="I70">
-        <v>0.84</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J70">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="K70">
-        <v>2030</v>
+        <v>2018</v>
       </c>
       <c r="L70">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="M70">
-        <v>80105.165547396828</v>
+        <v>52240.488471081924</v>
       </c>
       <c r="N70">
-        <v>128381.83445260317</v>
+        <v>78251.511528918083</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -5959,124 +5903,124 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0.28999999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J71">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="K71">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="L71">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M71">
-        <v>52240.488471081924</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>78251.511528918083</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>0.1</v>
+        <v>6.4100000000000004E-2</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>173</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="H72">
+        <v>0.7</v>
       </c>
       <c r="I72">
-        <v>0.56000000000000005</v>
+        <v>0.44</v>
       </c>
       <c r="J72">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="K72">
         <v>2020</v>
       </c>
       <c r="L72">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>75067.919760266464</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>127151.08023973354</v>
       </c>
       <c r="P72">
-        <v>6.4100000000000004E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>186</v>
-      </c>
-      <c r="H73">
-        <v>0.7</v>
+        <v>150</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="J73">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="K73">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="L73">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="M73">
-        <v>75067.919760266464</v>
+        <v>414564.67553031148</v>
       </c>
       <c r="N73">
-        <v>127151.08023973354</v>
+        <v>46637.324469688494</v>
       </c>
       <c r="P73">
-        <v>9.8000000000000004E-2</v>
+        <v>0.11220000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D74" t="s">
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -6085,42 +6029,39 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0.8</v>
+        <v>0.31</v>
       </c>
       <c r="J74">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K74">
         <v>2040</v>
       </c>
       <c r="L74">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="M74">
-        <v>414564.67553031148</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>46637.324469688494</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>0.11220000000000001</v>
+        <v>0.22870000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -6129,39 +6070,42 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="J75">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="K75">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="L75">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>7639691.7527608704</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>10586808.24723913</v>
       </c>
       <c r="P75">
-        <v>0.22870000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
       </c>
       <c r="E76" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6170,22 +6114,22 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0.25</v>
+        <v>0.53</v>
       </c>
       <c r="J76">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K76">
         <v>2020</v>
       </c>
       <c r="L76">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="M76">
-        <v>7639691.7527608704</v>
+        <v>69408.560333988455</v>
       </c>
       <c r="N76">
-        <v>10586808.24723913</v>
+        <v>101682.43966601155</v>
       </c>
       <c r="P76">
         <v>0.28999999999999998</v>
@@ -6193,19 +6137,19 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6214,42 +6158,42 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="J77">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="K77">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="L77">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="M77">
-        <v>69408.560333988455</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>101682.43966601155</v>
+        <v>0</v>
       </c>
       <c r="P77">
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E78" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -6258,16 +6202,16 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="J78">
         <v>2014</v>
       </c>
       <c r="K78">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="L78">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6281,101 +6225,104 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="H79">
+        <v>0.95</v>
       </c>
       <c r="I79">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="J79">
         <v>2014</v>
       </c>
       <c r="K79">
-        <v>2030</v>
+        <v>2022</v>
       </c>
       <c r="L79">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>2794097.0730040986</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>544597.92699590151</v>
       </c>
       <c r="P79">
-        <v>0.34</v>
+        <v>0.84400000000000008</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>153</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="I80">
-        <v>0.97</v>
+        <v>0.24</v>
       </c>
       <c r="J80">
         <v>2014</v>
       </c>
       <c r="K80">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="L80">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="M80">
-        <v>2794097.0730040986</v>
+        <v>2784330.1868065619</v>
       </c>
       <c r="N80">
-        <v>544597.92699590151</v>
+        <v>4565669.8131934376</v>
       </c>
       <c r="P80">
-        <v>0.84400000000000008</v>
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6383,55 +6330,49 @@
       <c r="G81">
         <v>1</v>
       </c>
-      <c r="H81">
-        <v>0.9</v>
-      </c>
       <c r="I81">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="J81">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="K81">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="L81">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M81">
-        <v>2784330.1868065619</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>4565669.8131934376</v>
+        <v>0</v>
       </c>
       <c r="P81">
-        <v>0.85299999999999998</v>
+        <v>0.55670000000000008</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E82" t="s">
-        <v>173</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
+        <v>163</v>
+      </c>
+      <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="J82">
         <v>2016</v>
@@ -6443,51 +6384,51 @@
         <v>2017</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>89998.291471429999</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>75081.708528570001</v>
       </c>
       <c r="P82">
-        <v>0.55670000000000008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E83" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I83">
-        <v>0.52</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="J83">
         <v>2016</v>
       </c>
       <c r="K83">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="L83">
         <v>2017</v>
       </c>
       <c r="M83">
-        <v>89998.291471429999</v>
+        <v>264761.8375622328</v>
       </c>
       <c r="N83">
-        <v>75081.708528570001</v>
+        <v>44578.162437767227</v>
       </c>
       <c r="P83">
         <v>1</v>
@@ -6495,40 +6436,40 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H84">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="I84">
-        <v>0.69000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="J84">
+        <v>2015</v>
+      </c>
+      <c r="K84">
+        <v>2019</v>
+      </c>
+      <c r="L84">
         <v>2016</v>
       </c>
-      <c r="K84">
-        <v>2021</v>
-      </c>
-      <c r="L84">
-        <v>2017</v>
-      </c>
       <c r="M84">
-        <v>264761.8375622328</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>44578.162437767227</v>
+        <v>0</v>
       </c>
       <c r="P84">
         <v>1</v>
@@ -6536,40 +6477,40 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>186</v>
-      </c>
-      <c r="H85">
-        <v>0.95</v>
+        <v>150</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="J85">
+        <v>2005</v>
+      </c>
+      <c r="K85">
+        <v>2020</v>
+      </c>
+      <c r="L85">
         <v>2015</v>
       </c>
-      <c r="K85">
-        <v>2019</v>
-      </c>
-      <c r="L85">
-        <v>2016</v>
-      </c>
       <c r="M85">
-        <v>0</v>
+        <v>6754871.390457835</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>595128.6095421646</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -6577,25 +6518,22 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E86" t="s">
-        <v>173</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="H86">
+        <v>0.89270000000000005</v>
       </c>
       <c r="I86">
-        <v>0.6</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J86">
         <v>2005</v>
@@ -6607,10 +6545,10 @@
         <v>2015</v>
       </c>
       <c r="M86">
-        <v>6754871.390457835</v>
+        <v>25276.982031206586</v>
       </c>
       <c r="N86">
-        <v>595128.6095421646</v>
+        <v>87553.017968793414</v>
       </c>
       <c r="P86">
         <v>1</v>
@@ -6618,37 +6556,43 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D87" t="s">
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>186</v>
-      </c>
-      <c r="H87">
-        <v>0.89270000000000005</v>
+        <v>150</v>
+      </c>
+      <c r="F87">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="G87">
+        <v>0.93100000000000005</v>
       </c>
       <c r="I87">
-        <v>0.70000000000000007</v>
+        <v>0.32</v>
       </c>
       <c r="J87">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="K87">
         <v>2020</v>
       </c>
       <c r="L87">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="M87">
-        <v>25276.982031206586</v>
+        <v>4995419.6435817536</v>
       </c>
       <c r="N87">
-        <v>87553.017968793414</v>
+        <v>9904580.3564182464</v>
       </c>
       <c r="P87">
         <v>1</v>
@@ -6656,75 +6600,72 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
-      </c>
-      <c r="F88">
-        <v>0.93100000000000005</v>
+        <v>152</v>
       </c>
       <c r="G88">
-        <v>0.93100000000000005</v>
+        <v>0.04</v>
       </c>
       <c r="I88">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="J88">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="K88">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L88">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="M88">
-        <v>4995419.6435817536</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>9904580.3564182464</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>0.36700000000000005</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D89" t="s">
+        <v>156</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G89">
-        <v>0.04</v>
+        <v>0.7</v>
       </c>
       <c r="I89">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="J89">
         <v>2010</v>
       </c>
       <c r="K89">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="L89">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -6733,36 +6674,33 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0.36700000000000005</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
-      </c>
-      <c r="D90" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
-      </c>
-      <c r="G90">
-        <v>0.7</v>
+        <v>159</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0.63</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="J90">
         <v>2010</v>
       </c>
       <c r="K90">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="L90">
         <v>2015</v>
@@ -6774,42 +6712,42 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
-      </c>
-      <c r="F91">
+        <v>152</v>
+      </c>
+      <c r="G91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0.57000000000000006</v>
+        <v>0.23</v>
       </c>
       <c r="J91">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="K91">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="L91">
         <v>2015</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>86188.973721744012</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>24078.026278255991</v>
       </c>
       <c r="P91">
         <v>1</v>
@@ -6817,25 +6755,25 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
-      </c>
-      <c r="G92">
+        <v>159</v>
+      </c>
+      <c r="F92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="J92">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="K92">
         <v>2019</v>
@@ -6844,10 +6782,10 @@
         <v>2015</v>
       </c>
       <c r="M92">
-        <v>86188.973721744012</v>
+        <v>157300.227918088</v>
       </c>
       <c r="N92">
-        <v>24078.026278255991</v>
+        <v>256065.772081912</v>
       </c>
       <c r="P92">
         <v>1</v>
@@ -6855,92 +6793,95 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
-      </c>
-      <c r="F93">
+        <v>152</v>
+      </c>
+      <c r="G93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="J93">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="K93">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="L93">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="M93">
-        <v>157300.227918088</v>
+        <v>76119.155977881208</v>
       </c>
       <c r="N93">
-        <v>256065.772081912</v>
+        <v>34147.844022118792</v>
       </c>
       <c r="P93">
-        <v>1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="J94">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="K94">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="L94">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="M94">
-        <v>76119.155977881208</v>
+        <v>50287.328437504606</v>
       </c>
       <c r="N94">
-        <v>34147.844022118792</v>
+        <v>363078.67156249541</v>
       </c>
       <c r="P94">
-        <v>0.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -6949,39 +6890,42 @@
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0.66</v>
+        <v>0.3</v>
       </c>
       <c r="J95">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="K95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="L95">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M95">
-        <v>50287.328437504606</v>
+        <v>220221.12183529223</v>
       </c>
       <c r="N95">
-        <v>363078.67156249541</v>
+        <v>310630.27816470782</v>
       </c>
       <c r="P95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
       </c>
       <c r="E96" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -6990,22 +6934,22 @@
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0.3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J96">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="K96">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L96">
         <v>2015</v>
       </c>
       <c r="M96">
-        <v>220221.12183529223</v>
+        <v>152767.86090478685</v>
       </c>
       <c r="N96">
-        <v>310630.27816470782</v>
+        <v>378083.53909521317</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -7013,19 +6957,19 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -7034,66 +6978,60 @@
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0.57999999999999996</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="J97">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="K97">
         <v>2030</v>
       </c>
       <c r="L97">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="M97">
-        <v>152767.86090478685</v>
+        <v>523303.09094109439</v>
       </c>
       <c r="N97">
-        <v>378083.53909521317</v>
+        <v>7548.309058905611</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E98" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
       <c r="I98">
-        <v>0.57000000000000006</v>
+        <v>0.38</v>
       </c>
       <c r="J98">
         <v>2013</v>
       </c>
       <c r="K98">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="L98">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="M98">
-        <v>523303.09094109439</v>
+        <v>388368.40900136431</v>
       </c>
       <c r="N98">
-        <v>7548.309058905611</v>
+        <v>142482.99099863574</v>
       </c>
       <c r="P98">
         <v>1</v>
@@ -7101,60 +7039,66 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E99" t="s">
-        <v>182</v>
-      </c>
-      <c r="F99">
+        <v>152</v>
+      </c>
+      <c r="G99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="K99">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="L99">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="M99">
-        <v>388368.40900136431</v>
+        <v>19905.125464660872</v>
       </c>
       <c r="N99">
-        <v>142482.99099863574</v>
+        <v>18145.874535339128</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>0.82000000000000006</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D100" t="s">
+        <v>156</v>
       </c>
       <c r="E100" t="s">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="F100">
+        <v>0.87</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="J100">
         <v>2011</v>
@@ -7166,54 +7110,48 @@
         <v>2016</v>
       </c>
       <c r="M100">
-        <v>19905.125464660872</v>
+        <v>133558.90949356617</v>
       </c>
       <c r="N100">
-        <v>18145.874535339128</v>
+        <v>85549.090506433844</v>
       </c>
       <c r="P100">
-        <v>0.82000000000000006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E101" t="s">
-        <v>173</v>
-      </c>
-      <c r="F101">
-        <v>0.87</v>
-      </c>
-      <c r="G101">
-        <v>0.87</v>
+        <v>163</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="J101">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="K101">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L101">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M101">
-        <v>133558.90949356617</v>
+        <v>103544.86251166406</v>
       </c>
       <c r="N101">
-        <v>85549.090506433844</v>
+        <v>153614.13748833592</v>
       </c>
       <c r="P101">
         <v>1</v>
@@ -7221,22 +7159,25 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E102" t="s">
-        <v>186</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="F102">
+        <v>0.27</v>
+      </c>
+      <c r="G102">
+        <v>0.27</v>
       </c>
       <c r="I102">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="J102">
         <v>2016</v>
@@ -7248,10 +7189,10 @@
         <v>2017</v>
       </c>
       <c r="M102">
-        <v>103544.86251166406</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>153614.13748833592</v>
+        <v>0</v>
       </c>
       <c r="P102">
         <v>1</v>
@@ -7259,25 +7200,28 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D103" t="s">
+        <v>156</v>
       </c>
       <c r="E103" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F103">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0.68</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J103">
         <v>2016</v>
@@ -7295,24 +7239,24 @@
         <v>0</v>
       </c>
       <c r="P103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D104" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E104" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7321,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0.28999999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="J104">
         <v>2016</v>
@@ -7339,77 +7283,77 @@
         <v>0</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D105" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E105" t="s">
-        <v>173</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="H105">
+        <v>0.44</v>
       </c>
       <c r="I105">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="J105">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="K105">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="L105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>248965.63534281132</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>32411.364657188678</v>
       </c>
       <c r="P105">
-        <v>7.0000000000000007E-2</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D106" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
-      </c>
-      <c r="H106">
-        <v>0.44</v>
+        <v>150</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="J106">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="K106">
         <v>2030</v>
@@ -7418,71 +7362,68 @@
         <v>2015</v>
       </c>
       <c r="M106">
-        <v>248965.63534281132</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>32411.364657188678</v>
+        <v>0</v>
       </c>
       <c r="P106">
-        <v>0.70000000000000007</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E107" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="I107">
-        <v>0.65</v>
+        <v>0.27</v>
       </c>
       <c r="J107">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="K107">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L107">
         <v>2015</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>542898.8931382685</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>903665.1068617315</v>
       </c>
       <c r="P107">
-        <v>0.61</v>
+        <v>0.69000000000000006</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F108">
         <v>0.94</v>
@@ -7491,39 +7432,42 @@
         <v>0.94</v>
       </c>
       <c r="I108">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="J108">
         <v>2000</v>
       </c>
       <c r="K108">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L108">
         <v>2015</v>
       </c>
       <c r="M108">
-        <v>542898.8931382685</v>
+        <v>1738037.0663147885</v>
       </c>
       <c r="N108">
-        <v>903665.1068617315</v>
+        <v>2019021.9336852115</v>
       </c>
       <c r="P108">
-        <v>0.69000000000000006</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D109" t="s">
+        <v>156</v>
       </c>
       <c r="E109" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F109">
         <v>0.94</v>
@@ -7532,101 +7476,98 @@
         <v>0.94</v>
       </c>
       <c r="I109">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="J109">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="K109">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L109">
         <v>2015</v>
       </c>
       <c r="M109">
-        <v>1738037.0663147885</v>
+        <v>1353813.9178252162</v>
       </c>
       <c r="N109">
-        <v>2019021.9336852115</v>
+        <v>2403245.0821747836</v>
       </c>
       <c r="P109">
-        <v>0.55000000000000004</v>
+        <v>0.57020000000000004</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C110" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D110" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E110" t="s">
-        <v>173</v>
-      </c>
-      <c r="F110">
-        <v>0.94</v>
-      </c>
-      <c r="G110">
-        <v>0.94</v>
+        <v>163</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="J110">
         <v>2010</v>
       </c>
       <c r="K110">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="L110">
         <v>2015</v>
       </c>
       <c r="M110">
-        <v>1353813.9178252162</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>2403245.0821747836</v>
+        <v>0</v>
       </c>
       <c r="P110">
-        <v>0.57020000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C111" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D111" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E111" t="s">
-        <v>186</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="F111">
+        <v>0.99</v>
       </c>
       <c r="I111">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="J111">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="K111">
         <v>2030</v>
       </c>
       <c r="L111">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -7635,86 +7576,86 @@
         <v>0</v>
       </c>
       <c r="P111">
-        <v>1</v>
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B112" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C112" t="s">
-        <v>178</v>
-      </c>
-      <c r="D112" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F112">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="J112">
         <v>2014</v>
       </c>
       <c r="K112">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L112">
         <v>2016</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>4253357.6841606703</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>5127493.4858393297</v>
       </c>
       <c r="P112">
-        <v>0.88300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D113" t="s">
+        <v>154</v>
       </c>
       <c r="E113" t="s">
-        <v>173</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
+        <v>163</v>
+      </c>
+      <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J113">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="K113">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L113">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M113">
-        <v>4253357.6841606703</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>5127493.4858393297</v>
+        <v>0</v>
       </c>
       <c r="P113">
         <v>1</v>
@@ -7722,34 +7663,34 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C114" t="s">
-        <v>178</v>
-      </c>
-      <c r="D114" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E114" t="s">
-        <v>186</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="F114">
+        <v>0.99</v>
+      </c>
+      <c r="G114">
+        <v>0.99</v>
       </c>
       <c r="I114">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="J114">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="K114">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="L114">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -7758,30 +7699,30 @@
         <v>0</v>
       </c>
       <c r="P114">
-        <v>1</v>
+        <v>1.52E-2</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C115" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E115" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F115">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0.37</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="J115">
         <v>2017</v>
@@ -7799,36 +7740,36 @@
         <v>0</v>
       </c>
       <c r="P115">
-        <v>1.52E-2</v>
+        <v>1.24E-2</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E116" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="I116">
-        <v>0.35000000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="J116">
         <v>2017</v>
       </c>
       <c r="K116">
-        <v>2018</v>
+        <v>2027</v>
       </c>
       <c r="L116">
         <v>2018</v>
@@ -7840,30 +7781,33 @@
         <v>0</v>
       </c>
       <c r="P116">
-        <v>1.24E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C117" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D117" t="s">
+        <v>154</v>
       </c>
       <c r="E117" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F117">
-        <v>0.66839999999999999</v>
+        <v>0.2024</v>
       </c>
       <c r="G117">
-        <v>0.66839999999999999</v>
+        <v>0.2024</v>
       </c>
       <c r="I117">
-        <v>0.81</v>
+        <v>0.67</v>
       </c>
       <c r="J117">
         <v>2017</v>
@@ -7881,39 +7825,39 @@
         <v>0</v>
       </c>
       <c r="P117">
-        <v>0.25</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B118" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C118" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D118" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E118" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F118">
-        <v>0.2024</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="G118">
-        <v>0.2024</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="I118">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="J118">
         <v>2017</v>
       </c>
       <c r="K118">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="L118">
         <v>2018</v>
@@ -7925,42 +7869,39 @@
         <v>0</v>
       </c>
       <c r="P118">
-        <v>0.154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C119" t="s">
-        <v>178</v>
-      </c>
-      <c r="D119" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E119" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F119">
-        <v>0.66900000000000004</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>0.66900000000000004</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="J119">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="K119">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="L119">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -7969,30 +7910,33 @@
         <v>0</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
-        <v>180</v>
+        <v>155</v>
+      </c>
+      <c r="D120" t="s">
+        <v>161</v>
       </c>
       <c r="E120" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I120">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
       <c r="J120">
         <v>2009</v>
@@ -8004,65 +7948,16 @@
         <v>2010</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>65465.244156436005</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>2292.7558435639962</v>
       </c>
       <c r="P120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>114</v>
-      </c>
-      <c r="B121" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" t="s">
-        <v>178</v>
-      </c>
-      <c r="D121" t="s">
-        <v>184</v>
-      </c>
-      <c r="E121" t="s">
-        <v>173</v>
-      </c>
-      <c r="F121">
-        <v>0.6</v>
-      </c>
-      <c r="G121">
-        <v>0.6</v>
-      </c>
-      <c r="I121">
-        <v>0.46</v>
-      </c>
-      <c r="J121">
-        <v>2009</v>
-      </c>
-      <c r="K121">
-        <v>2020</v>
-      </c>
-      <c r="L121">
-        <v>2010</v>
-      </c>
-      <c r="M121">
-        <v>65465.244156436005</v>
-      </c>
-      <c r="N121">
-        <v>2292.7558435639962</v>
-      </c>
-      <c r="P121">
         <v>0.61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,6 @@
     <t>sector</t>
   </si>
   <si>
-    <t>market_cap</t>
-  </si>
-  <si>
-    <t>cash_equivalents</t>
-  </si>
-  <si>
     <t>Advanced Micro Devices, Inc</t>
   </si>
   <si>
@@ -580,13 +574,19 @@
   </si>
   <si>
     <t>base_year_ghg_s3</t>
+  </si>
+  <si>
+    <t>company_market_cap</t>
+  </si>
+  <si>
+    <t>company_cash_equivalents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +601,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -623,9 +628,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,12 +679,12 @@
     <tableColumn id="18" name="ghg_s1s2"/>
     <tableColumn id="8" name="ghg_s3"/>
     <tableColumn id="9" name="company_revenue"/>
-    <tableColumn id="10" name="market_cap"/>
+    <tableColumn id="10" name="company_market_cap"/>
     <tableColumn id="11" name="company_enterprise_value"/>
     <tableColumn id="12" name="company_total_assets" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[market_cap]]*Q2</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="cash_equivalents"/>
+    <tableColumn id="13" name="company_cash_equivalents"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -972,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -989,74 +997,74 @@
     <col min="17" max="17" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
       <c r="K2">
         <v>24965246.128183831</v>
@@ -1080,21 +1088,21 @@
         <v>4528467714.7267609</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
       </c>
       <c r="K3">
         <v>1288468.9201645069</v>
@@ -1118,21 +1126,21 @@
         <v>69006940.998092517</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
       </c>
       <c r="K4">
         <v>230191.46897492089</v>
@@ -1156,21 +1164,21 @@
         <v>1163119848.4230556</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
       </c>
       <c r="K5">
         <v>178705.06184309252</v>
@@ -1194,21 +1202,21 @@
         <v>117630751.45422383</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <v>97771.835813462851</v>
@@ -1232,21 +1240,21 @@
         <v>28933197273.168182</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
       </c>
       <c r="K7">
         <v>466041.10015869705</v>
@@ -1270,21 +1278,21 @@
         <v>51876930016.314178</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>128250.99022235045</v>
@@ -1308,21 +1316,21 @@
         <v>2214490.9702577037</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
       </c>
       <c r="K9">
         <v>1736.1153986195452</v>
@@ -1346,21 +1354,21 @@
         <v>203940251.11854151</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="J10" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
       </c>
       <c r="K10">
         <v>196777.12553570265</v>
@@ -1384,21 +1392,21 @@
         <v>42950453116.50563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <v>259165.86622702488</v>
@@ -1422,21 +1430,21 @@
         <v>5520000408.4878492</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K12">
         <v>81810.361536814045</v>
@@ -1460,21 +1468,21 @@
         <v>505519258.45795137</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13">
         <v>14847.919278129972</v>
@@ -1498,21 +1506,21 @@
         <v>462245314.11453331</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <v>31895.87194649009</v>
@@ -1536,21 +1544,21 @@
         <v>1853875026.0311818</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15">
         <v>42305.282163536431</v>
@@ -1574,21 +1582,21 @@
         <v>3272481697.8285317</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>118561.91297201814</v>
@@ -1612,21 +1620,21 @@
         <v>518880676.89759755</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K17">
         <v>45833216.792469583</v>
@@ -1650,21 +1658,21 @@
         <v>990719858.47337103</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
         <v>9600.4773434214167</v>
@@ -1688,21 +1696,21 @@
         <v>470283632.88013947</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K19">
         <v>25428190.928034011</v>
@@ -1726,21 +1734,21 @@
         <v>963039844.50366735</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K20">
         <v>85293.345618346313</v>
@@ -1764,21 +1772,21 @@
         <v>23467516.32994597</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21">
         <v>988.46631917228888</v>
@@ -1802,21 +1810,21 @@
         <v>457926390.7271148</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <v>20210717.506183945</v>
@@ -1840,21 +1848,21 @@
         <v>469617764.24836379</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>2878524.2770361695</v>
@@ -1878,21 +1886,21 @@
         <v>209706066.63280141</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>589526.73014329805</v>
@@ -1916,21 +1924,21 @@
         <v>80140338.552216381</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <v>7790.9166015573965</v>
@@ -1954,21 +1962,21 @@
         <v>1863069356.1369269</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K26">
         <v>2166428.3608621312</v>
@@ -1992,21 +2000,21 @@
         <v>802015633.4125073</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
         <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" t="s">
-        <v>76</v>
       </c>
       <c r="K27">
         <v>1374527.5713624337</v>
@@ -2030,21 +2038,21 @@
         <v>1090445581.1975896</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
         <v>78</v>
       </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K28">
         <v>36340.85512554364</v>
@@ -2068,21 +2076,21 @@
         <v>408632883.32140654</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s">
         <v>81</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" t="s">
-        <v>83</v>
       </c>
       <c r="K29">
         <v>68737.202118534289</v>
@@ -2106,21 +2114,21 @@
         <v>223357269.54921383</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" t="s">
-        <v>86</v>
       </c>
       <c r="K30">
         <v>100484.3202610756</v>
@@ -2144,21 +2152,21 @@
         <v>1279584288.1275206</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>89</v>
-      </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K31">
         <v>14088280.445939962</v>
@@ -2182,21 +2190,21 @@
         <v>259739897.26190066</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K32">
         <v>118941.23272573021</v>
@@ -2220,21 +2228,21 @@
         <v>2957267010.5849843</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K33">
         <v>21988.936351392673</v>
@@ -2258,21 +2266,21 @@
         <v>3249873922.9934068</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K34">
         <v>11935572.900812317</v>
@@ -2296,21 +2304,21 @@
         <v>1054147392.1400725</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
         <v>96</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
         <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" t="s">
-        <v>99</v>
       </c>
       <c r="K35">
         <v>2107.7428559933919</v>
@@ -2334,21 +2342,21 @@
         <v>16164035.009301951</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K36">
         <v>314936.79875185777</v>
@@ -2372,21 +2380,21 @@
         <v>76375335.415532187</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K37">
         <v>91117.578012331389</v>
@@ -2410,21 +2418,21 @@
         <v>403556882.32980388</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
         <v>104</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" t="s">
-        <v>106</v>
       </c>
       <c r="K38">
         <v>26.865407941423623</v>
@@ -2448,21 +2456,21 @@
         <v>359922992.06079412</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K39">
         <v>1988.9893256430512</v>
@@ -2486,21 +2494,21 @@
         <v>188775849.06628573</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K40">
         <v>116613.16602106349</v>
@@ -2524,21 +2532,21 @@
         <v>3126017043.1166129</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K41">
         <v>2641303.9499925142</v>
@@ -2562,21 +2570,21 @@
         <v>25963862784.153816</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
         <v>113</v>
       </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>115</v>
-      </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K42">
         <v>34886.045315286356</v>
@@ -2600,21 +2608,21 @@
         <v>216444951.50947747</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
         <v>116</v>
       </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K43">
         <v>13266889.881567331</v>
@@ -2638,21 +2646,21 @@
         <v>463981837.16979945</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K44">
         <v>1436916.8962362793</v>
@@ -2676,21 +2684,21 @@
         <v>630827983.47226107</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
         <v>121</v>
       </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" t="s">
-        <v>123</v>
-      </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K45">
         <v>6611043.5529440343</v>
@@ -2714,21 +2722,21 @@
         <v>1089931685.5934117</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
         <v>124</v>
       </c>
-      <c r="B46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" t="s">
-        <v>126</v>
-      </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K46">
         <v>8307064.9522866216</v>
@@ -2752,21 +2760,21 @@
         <v>1580248549.8247914</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
         <v>127</v>
       </c>
-      <c r="B47" t="s">
+      <c r="E47" t="s">
         <v>128</v>
       </c>
-      <c r="D47" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" t="s">
-        <v>130</v>
-      </c>
       <c r="J47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K47">
         <v>6086.1963717252083</v>
@@ -2790,21 +2798,21 @@
         <v>360167278.93933254</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
         <v>131</v>
       </c>
-      <c r="B48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" t="s">
-        <v>133</v>
-      </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K48">
         <v>121886.58843968091</v>
@@ -2828,21 +2836,21 @@
         <v>23659060554.326973</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
         <v>134</v>
       </c>
-      <c r="B49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" t="s">
-        <v>136</v>
-      </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K49">
         <v>3073484.0384656894</v>
@@ -2866,21 +2874,21 @@
         <v>94976895574.746582</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" t="s">
         <v>137</v>
       </c>
-      <c r="B50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" t="s">
-        <v>139</v>
-      </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K50">
         <v>244176.80273373649</v>
@@ -2904,21 +2912,21 @@
         <v>408452279.29417968</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
         <v>140</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E51" t="s">
         <v>141</v>
       </c>
-      <c r="D51" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" t="s">
-        <v>143</v>
-      </c>
       <c r="J51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K51">
         <v>240504.60431777878</v>
@@ -2955,11 +2963,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -2973,68 +2981,68 @@
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>177</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>178</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" t="s">
         <v>180</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>181</v>
       </c>
-      <c r="I1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" t="s">
         <v>146</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
       </c>
-      <c r="M1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="E2" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3064,21 +3072,21 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3109,21 +3117,21 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H4">
         <v>0.6</v>
@@ -3150,21 +3158,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" t="s">
-        <v>153</v>
       </c>
       <c r="F5">
         <v>0.95</v>
@@ -3197,21 +3205,21 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
         <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" t="s">
-        <v>153</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3244,21 +3252,21 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3288,18 +3296,18 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H8">
         <v>0.8</v>
@@ -3326,21 +3334,21 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3370,21 +3378,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3414,21 +3422,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3458,18 +3466,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3499,18 +3507,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3540,18 +3548,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3581,18 +3589,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3622,18 +3630,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3663,18 +3671,18 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3704,18 +3712,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H18">
         <v>0.12</v>
@@ -3742,18 +3750,18 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19">
         <v>0.3</v>
@@ -3780,18 +3788,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H20">
         <v>0.4</v>
@@ -3818,18 +3826,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H21">
         <v>0.5</v>
@@ -3856,18 +3864,18 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H22">
         <v>0.6</v>
@@ -3894,18 +3902,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H23">
         <v>0.8</v>
@@ -3932,21 +3940,21 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H24">
         <v>0.7</v>
@@ -3973,18 +3981,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4014,18 +4022,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4055,21 +4063,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F27">
         <v>0.95</v>
@@ -4099,21 +4107,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H28">
         <v>0.8</v>
@@ -4134,21 +4142,21 @@
         <v>0.49600000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H29">
         <v>0.9</v>
@@ -4175,18 +4183,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F30">
         <v>0.99</v>
@@ -4216,21 +4224,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H31">
         <v>0.81</v>
@@ -4257,18 +4265,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F32">
         <v>0.85</v>
@@ -4298,18 +4306,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -4336,21 +4344,21 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -4377,18 +4385,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -4412,18 +4420,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4453,21 +4461,21 @@
         <v>6.1699999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H37">
         <v>0.159</v>
@@ -4494,21 +4502,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H38">
         <v>0.75</v>
@@ -4535,18 +4543,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4573,21 +4581,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F40">
         <v>0.71</v>
@@ -4611,21 +4619,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F41">
         <v>0.75</v>
@@ -4655,21 +4663,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -4699,18 +4707,18 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4740,18 +4748,18 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F44">
         <v>0.86</v>
@@ -4781,18 +4789,18 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F45">
         <v>0.86</v>
@@ -4822,21 +4830,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -4866,21 +4874,21 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4910,18 +4918,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F48">
         <v>0.65</v>
@@ -4951,21 +4959,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F49">
         <v>0.65</v>
@@ -4995,21 +5003,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F50">
         <v>0.65</v>
@@ -5042,18 +5050,18 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5083,21 +5091,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5124,21 +5132,21 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -5168,18 +5176,18 @@
         <v>5.4000000000000006E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F54">
         <v>0.7</v>
@@ -5209,18 +5217,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -5250,18 +5258,18 @@
         <v>0.30809999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5291,18 +5299,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F57">
         <v>0.97</v>
@@ -5332,18 +5340,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -5373,21 +5381,21 @@
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -5417,21 +5425,21 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F60">
         <v>0.75</v>
@@ -5461,21 +5469,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -5505,18 +5513,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -5546,18 +5554,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -5587,18 +5595,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F64">
         <v>0.95</v>
@@ -5628,21 +5636,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F65">
         <v>0.95</v>
@@ -5672,21 +5680,21 @@
         <v>0.47789999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F66">
         <v>0.93</v>
@@ -5716,18 +5724,18 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -5757,21 +5765,21 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -5801,18 +5809,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" t="s">
         <v>157</v>
-      </c>
-      <c r="E69" t="s">
-        <v>159</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -5839,18 +5847,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -5880,21 +5888,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -5924,21 +5932,21 @@
         <v>6.4100000000000004E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H72">
         <v>0.7</v>
@@ -5965,18 +5973,18 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -6006,21 +6014,21 @@
         <v>0.11220000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -6050,18 +6058,18 @@
         <v>0.22870000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -6091,21 +6099,21 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6135,21 +6143,21 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6179,21 +6187,21 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -6223,18 +6231,18 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H79">
         <v>0.95</v>
@@ -6261,21 +6269,21 @@
         <v>0.84400000000000008</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6308,21 +6316,21 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6352,21 +6360,21 @@
         <v>0.55670000000000008</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -6393,21 +6401,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H83">
         <v>0.6</v>
@@ -6434,21 +6442,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H84">
         <v>0.95</v>
@@ -6475,18 +6483,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -6516,18 +6524,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H86">
         <v>0.89270000000000005</v>
@@ -6554,21 +6562,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F87">
         <v>0.93100000000000005</v>
@@ -6598,18 +6606,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G88">
         <v>0.04</v>
@@ -6636,21 +6644,21 @@
         <v>0.36700000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G89">
         <v>0.7</v>
@@ -6677,18 +6685,18 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" t="s">
         <v>157</v>
-      </c>
-      <c r="E90" t="s">
-        <v>159</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -6715,18 +6723,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E91" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -6753,18 +6761,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C92" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" t="s">
         <v>157</v>
-      </c>
-      <c r="E92" t="s">
-        <v>159</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -6791,18 +6799,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -6829,18 +6837,18 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -6870,18 +6878,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -6911,21 +6919,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -6955,21 +6963,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -6999,18 +7007,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" t="s">
         <v>157</v>
-      </c>
-      <c r="E98" t="s">
-        <v>159</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -7037,18 +7045,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E99" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -7075,21 +7083,21 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F100">
         <v>0.87</v>
@@ -7119,18 +7127,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -7157,18 +7165,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F102">
         <v>0.27</v>
@@ -7198,21 +7206,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E103" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -7242,21 +7250,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E104" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7286,21 +7294,21 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D105" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H105">
         <v>0.44</v>
@@ -7327,21 +7335,21 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -7371,18 +7379,18 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F107">
         <v>0.94</v>
@@ -7412,18 +7420,18 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F108">
         <v>0.94</v>
@@ -7453,21 +7461,21 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F109">
         <v>0.94</v>
@@ -7497,21 +7505,21 @@
         <v>0.57020000000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -7538,21 +7546,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D111" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F111">
         <v>0.99</v>
@@ -7579,18 +7587,18 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -7620,21 +7628,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E113" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -7661,18 +7669,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F114">
         <v>0.99</v>
@@ -7702,18 +7710,18 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C115" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -7743,18 +7751,18 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F116">
         <v>0.66839999999999999</v>
@@ -7784,21 +7792,21 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F117">
         <v>0.2024</v>
@@ -7828,21 +7836,21 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B118" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E118" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F118">
         <v>0.66900000000000004</v>
@@ -7872,18 +7880,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B119" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -7913,21 +7921,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E120" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F120">
         <v>0.6</v>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JanThiemenP\development\SBTi\examples\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\src\SBTi\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
     <sheet name="target_data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,6 @@
     <t>sector</t>
   </si>
   <si>
-    <t>Advanced Micro Devices, Inc</t>
-  </si>
-  <si>
     <t>US0079031078</t>
   </si>
   <si>
@@ -48,18 +45,12 @@
     <t>Industrials</t>
   </si>
   <si>
-    <t>Adobe Systems Inc.</t>
-  </si>
-  <si>
     <t>US00724F1012</t>
   </si>
   <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>Capgemini Group</t>
-  </si>
-  <si>
     <t>FR0000125338</t>
   </si>
   <si>
@@ -72,24 +63,15 @@
     <t>Consumer Discretionary</t>
   </si>
   <si>
-    <t>Cisco Systems, Inc.</t>
-  </si>
-  <si>
     <t>US17275R1023</t>
   </si>
   <si>
-    <t>Coca-Cola HBC AG</t>
-  </si>
-  <si>
     <t>CH0198251305</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>CVS Health</t>
-  </si>
-  <si>
     <t>US1266501006</t>
   </si>
   <si>
@@ -99,24 +81,15 @@
     <t>Health Care</t>
   </si>
   <si>
-    <t>Danone</t>
-  </si>
-  <si>
     <t>FR0000120644</t>
   </si>
   <si>
-    <t>Dell Technologies</t>
-  </si>
-  <si>
     <t>US24703L1035</t>
   </si>
   <si>
     <t>Financials</t>
   </si>
   <si>
-    <t>Delta Electronics</t>
-  </si>
-  <si>
     <t>TW0002308004</t>
   </si>
   <si>
@@ -129,57 +102,33 @@
     <t>Information Technology</t>
   </si>
   <si>
-    <t>L'Oréal</t>
-  </si>
-  <si>
     <t>FR0000120321</t>
   </si>
   <si>
-    <t>Nestlé</t>
-  </si>
-  <si>
     <t>CH0038863350</t>
   </si>
   <si>
-    <t>Sony Corporation</t>
-  </si>
-  <si>
     <t>US8356993076</t>
   </si>
   <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>SUMITOMO CHEMICAL Co., Ltd.</t>
-  </si>
-  <si>
     <t>JP3401400001</t>
   </si>
   <si>
-    <t>NIKE, Inc.</t>
-  </si>
-  <si>
     <t>US6541061031</t>
   </si>
   <si>
-    <t>Marks &amp; Spencer</t>
-  </si>
-  <si>
     <t>GB0031274896</t>
   </si>
   <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>NRG Energy Inc</t>
-  </si>
-  <si>
     <t>US6293775085</t>
   </si>
   <si>
-    <t>PepsiCo, Inc.</t>
-  </si>
-  <si>
     <t>US7134481081</t>
   </si>
   <si>
@@ -580,13 +529,64 @@
   </si>
   <si>
     <t>company_cash_equivalents</t>
+  </si>
+  <si>
+    <t>Company AH</t>
+  </si>
+  <si>
+    <t>Company AI</t>
+  </si>
+  <si>
+    <t>Company AJ</t>
+  </si>
+  <si>
+    <t>Company AK</t>
+  </si>
+  <si>
+    <t>Company AL</t>
+  </si>
+  <si>
+    <t>Company AM</t>
+  </si>
+  <si>
+    <t>Company AN</t>
+  </si>
+  <si>
+    <t>Company AO</t>
+  </si>
+  <si>
+    <t>Company AP</t>
+  </si>
+  <si>
+    <t>Company AQ</t>
+  </si>
+  <si>
+    <t>Company AR</t>
+  </si>
+  <si>
+    <t>Company AS</t>
+  </si>
+  <si>
+    <t>Company AT</t>
+  </si>
+  <si>
+    <t>Company AU</t>
+  </si>
+  <si>
+    <t>Company AV</t>
+  </si>
+  <si>
+    <t>Company AX</t>
+  </si>
+  <si>
+    <t>Company AW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -997,74 +997,74 @@
     <col min="17" max="17" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" t="s">
         <v>167</v>
       </c>
-      <c r="G1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
       </c>
       <c r="K2">
         <v>24965246.128183831</v>
@@ -1088,21 +1088,21 @@
         <v>4528467714.7267609</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
       </c>
       <c r="K3">
         <v>1288468.9201645069</v>
@@ -1126,21 +1126,21 @@
         <v>69006940.998092517</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
       </c>
       <c r="K4">
         <v>230191.46897492089</v>
@@ -1164,21 +1164,21 @@
         <v>1163119848.4230556</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
       </c>
       <c r="K5">
         <v>178705.06184309252</v>
@@ -1202,21 +1202,21 @@
         <v>117630751.45422383</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>97771.835813462851</v>
@@ -1240,21 +1240,21 @@
         <v>28933197273.168182</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K7">
         <v>466041.10015869705</v>
@@ -1278,21 +1278,21 @@
         <v>51876930016.314178</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>128250.99022235045</v>
@@ -1316,21 +1316,21 @@
         <v>2214490.9702577037</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>1736.1153986195452</v>
@@ -1354,21 +1354,21 @@
         <v>203940251.11854151</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>196777.12553570265</v>
@@ -1392,21 +1392,21 @@
         <v>42950453116.50563</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <v>259165.86622702488</v>
@@ -1430,21 +1430,21 @@
         <v>5520000408.4878492</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K12">
         <v>81810.361536814045</v>
@@ -1468,21 +1468,21 @@
         <v>505519258.45795137</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K13">
         <v>14847.919278129972</v>
@@ -1506,21 +1506,21 @@
         <v>462245314.11453331</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>31895.87194649009</v>
@@ -1544,21 +1544,21 @@
         <v>1853875026.0311818</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K15">
         <v>42305.282163536431</v>
@@ -1582,21 +1582,21 @@
         <v>3272481697.8285317</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>118561.91297201814</v>
@@ -1620,21 +1620,21 @@
         <v>518880676.89759755</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K17">
         <v>45833216.792469583</v>
@@ -1658,21 +1658,21 @@
         <v>990719858.47337103</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K18">
         <v>9600.4773434214167</v>
@@ -1696,21 +1696,21 @@
         <v>470283632.88013947</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K19">
         <v>25428190.928034011</v>
@@ -1734,21 +1734,21 @@
         <v>963039844.50366735</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K20">
         <v>85293.345618346313</v>
@@ -1772,21 +1772,21 @@
         <v>23467516.32994597</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <v>988.46631917228888</v>
@@ -1810,21 +1810,21 @@
         <v>457926390.7271148</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <v>20210717.506183945</v>
@@ -1848,21 +1848,21 @@
         <v>469617764.24836379</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <v>2878524.2770361695</v>
@@ -1886,21 +1886,21 @@
         <v>209706066.63280141</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
         <v>5</v>
-      </c>
-      <c r="J24" t="s">
-        <v>6</v>
       </c>
       <c r="K24">
         <v>589526.73014329805</v>
@@ -1924,21 +1924,21 @@
         <v>80140338.552216381</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25">
         <v>7790.9166015573965</v>
@@ -1962,21 +1962,21 @@
         <v>1863069356.1369269</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K26">
         <v>2166428.3608621312</v>
@@ -2000,21 +2000,21 @@
         <v>802015633.4125073</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K27">
         <v>1374527.5713624337</v>
@@ -2038,21 +2038,21 @@
         <v>1090445581.1975896</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K28">
         <v>36340.85512554364</v>
@@ -2076,21 +2076,21 @@
         <v>408632883.32140654</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="K29">
         <v>68737.202118534289</v>
@@ -2114,21 +2114,21 @@
         <v>223357269.54921383</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K30">
         <v>100484.3202610756</v>
@@ -2152,21 +2152,21 @@
         <v>1279584288.1275206</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K31">
         <v>14088280.445939962</v>
@@ -2190,21 +2190,21 @@
         <v>259739897.26190066</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K32">
         <v>118941.23272573021</v>
@@ -2228,21 +2228,21 @@
         <v>2957267010.5849843</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <v>21988.936351392673</v>
@@ -2266,21 +2266,21 @@
         <v>3249873922.9934068</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <v>11935572.900812317</v>
@@ -2304,21 +2304,21 @@
         <v>1054147392.1400725</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K35">
         <v>2107.7428559933919</v>
@@ -2342,21 +2342,21 @@
         <v>16164035.009301951</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K36">
         <v>314936.79875185777</v>
@@ -2380,21 +2380,21 @@
         <v>76375335.415532187</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
         <v>5</v>
-      </c>
-      <c r="J37" t="s">
-        <v>6</v>
       </c>
       <c r="K37">
         <v>91117.578012331389</v>
@@ -2418,21 +2418,21 @@
         <v>403556882.32980388</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K38">
         <v>26.865407941423623</v>
@@ -2456,21 +2456,21 @@
         <v>359922992.06079412</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K39">
         <v>1988.9893256430512</v>
@@ -2494,21 +2494,21 @@
         <v>188775849.06628573</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K40">
         <v>116613.16602106349</v>
@@ -2532,21 +2532,21 @@
         <v>3126017043.1166129</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K41">
         <v>2641303.9499925142</v>
@@ -2570,21 +2570,21 @@
         <v>25963862784.153816</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K42">
         <v>34886.045315286356</v>
@@ -2608,21 +2608,21 @@
         <v>216444951.50947747</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K43">
         <v>13266889.881567331</v>
@@ -2646,21 +2646,21 @@
         <v>463981837.16979945</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K44">
         <v>1436916.8962362793</v>
@@ -2684,21 +2684,21 @@
         <v>630827983.47226107</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K45">
         <v>6611043.5529440343</v>
@@ -2722,21 +2722,21 @@
         <v>1089931685.5934117</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K46">
         <v>8307064.9522866216</v>
@@ -2760,21 +2760,21 @@
         <v>1580248549.8247914</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="J47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K47">
         <v>6086.1963717252083</v>
@@ -2798,21 +2798,21 @@
         <v>360167278.93933254</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K48">
         <v>121886.58843968091</v>
@@ -2836,21 +2836,21 @@
         <v>23659060554.326973</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K49">
         <v>3073484.0384656894</v>
@@ -2874,21 +2874,21 @@
         <v>94976895574.746582</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K50">
         <v>244176.80273373649</v>
@@ -2912,21 +2912,21 @@
         <v>408452279.29417968</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="J51" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K51">
         <v>240504.60431777878</v>
@@ -2963,11 +2963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -2981,68 +2979,68 @@
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" t="s">
         <v>160</v>
       </c>
-      <c r="C1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" t="s">
-        <v>177</v>
-      </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="N1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="O1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3072,21 +3070,21 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3117,21 +3115,21 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H4">
         <v>0.6</v>
@@ -3158,21 +3156,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F5">
         <v>0.95</v>
@@ -3205,21 +3203,21 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3252,21 +3250,21 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3296,18 +3294,18 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H8">
         <v>0.8</v>
@@ -3334,21 +3332,21 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3378,21 +3376,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3422,21 +3420,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3466,18 +3464,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3507,18 +3505,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3548,18 +3546,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3589,18 +3587,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3630,18 +3628,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3671,18 +3669,18 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3712,18 +3710,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H18">
         <v>0.12</v>
@@ -3750,18 +3748,18 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H19">
         <v>0.3</v>
@@ -3788,18 +3786,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H20">
         <v>0.4</v>
@@ -3826,18 +3824,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H21">
         <v>0.5</v>
@@ -3864,18 +3862,18 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H22">
         <v>0.6</v>
@@ -3902,18 +3900,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H23">
         <v>0.8</v>
@@ -3940,21 +3938,21 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H24">
         <v>0.7</v>
@@ -3981,18 +3979,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4022,18 +4020,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4063,21 +4061,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F27">
         <v>0.95</v>
@@ -4107,21 +4105,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H28">
         <v>0.8</v>
@@ -4142,21 +4140,21 @@
         <v>0.49600000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H29">
         <v>0.9</v>
@@ -4183,18 +4181,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F30">
         <v>0.99</v>
@@ -4224,21 +4222,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H31">
         <v>0.81</v>
@@ -4265,18 +4263,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F32">
         <v>0.85</v>
@@ -4306,18 +4304,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -4344,21 +4342,21 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -4385,18 +4383,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -4420,18 +4418,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4461,21 +4459,21 @@
         <v>6.1699999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H37">
         <v>0.159</v>
@@ -4502,21 +4500,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H38">
         <v>0.75</v>
@@ -4543,18 +4541,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4581,21 +4579,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F40">
         <v>0.71</v>
@@ -4619,21 +4617,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F41">
         <v>0.75</v>
@@ -4663,21 +4661,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -4707,18 +4705,18 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4748,18 +4746,18 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
         <v>2</v>
       </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F44">
         <v>0.86</v>
@@ -4789,18 +4787,18 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F45">
         <v>0.86</v>
@@ -4830,21 +4828,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -4874,21 +4872,21 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4918,18 +4916,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F48">
         <v>0.65</v>
@@ -4959,21 +4957,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F49">
         <v>0.65</v>
@@ -5003,21 +5001,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F50">
         <v>0.65</v>
@@ -5050,18 +5048,18 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5091,21 +5089,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5132,21 +5130,21 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -5176,18 +5174,18 @@
         <v>5.4000000000000006E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F54">
         <v>0.7</v>
@@ -5217,18 +5215,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -5258,18 +5256,18 @@
         <v>0.30809999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5299,18 +5297,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F57">
         <v>0.97</v>
@@ -5340,18 +5338,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -5381,21 +5379,21 @@
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -5425,21 +5423,21 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F60">
         <v>0.75</v>
@@ -5469,21 +5467,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -5513,18 +5511,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -5554,18 +5552,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -5595,18 +5593,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F64">
         <v>0.95</v>
@@ -5636,21 +5634,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F65">
         <v>0.95</v>
@@ -5680,21 +5678,21 @@
         <v>0.47789999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F66">
         <v>0.93</v>
@@ -5724,18 +5722,18 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -5765,21 +5763,21 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -5809,18 +5807,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -5847,18 +5845,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -5888,21 +5886,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -5932,21 +5930,21 @@
         <v>6.4100000000000004E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H72">
         <v>0.7</v>
@@ -5973,18 +5971,18 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -6014,21 +6012,21 @@
         <v>0.11220000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -6058,18 +6056,18 @@
         <v>0.22870000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -6099,21 +6097,21 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6143,21 +6141,21 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6187,21 +6185,21 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -6231,18 +6229,18 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" t="s">
         <v>2</v>
       </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H79">
         <v>0.95</v>
@@ -6269,21 +6267,21 @@
         <v>0.84400000000000008</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6316,21 +6314,21 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6360,21 +6358,21 @@
         <v>0.55670000000000008</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -6401,21 +6399,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H83">
         <v>0.6</v>
@@ -6442,21 +6440,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H84">
         <v>0.95</v>
@@ -6483,18 +6481,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -6524,18 +6522,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H86">
         <v>0.89270000000000005</v>
@@ -6562,21 +6560,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E87" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F87">
         <v>0.93100000000000005</v>
@@ -6606,18 +6604,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G88">
         <v>0.04</v>
@@ -6644,21 +6642,21 @@
         <v>0.36700000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G89">
         <v>0.7</v>
@@ -6685,18 +6683,18 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -6723,18 +6721,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -6761,18 +6759,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E92" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -6799,18 +6797,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -6837,18 +6835,18 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C94" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E94" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -6878,18 +6876,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" t="s">
         <v>2</v>
       </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E95" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -6919,21 +6917,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D96" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E96" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -6963,21 +6961,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E97" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -7007,18 +7005,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -7045,18 +7043,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -7083,21 +7081,21 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E100" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F100">
         <v>0.87</v>
@@ -7127,18 +7125,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -7165,18 +7163,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F102">
         <v>0.27</v>
@@ -7206,21 +7204,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D103" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E103" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -7250,21 +7248,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D104" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E104" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7294,21 +7292,21 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D105" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E105" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H105">
         <v>0.44</v>
@@ -7335,21 +7333,21 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D106" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E106" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -7379,18 +7377,18 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F107">
         <v>0.94</v>
@@ -7420,18 +7418,18 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F108">
         <v>0.94</v>
@@ -7461,21 +7459,21 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C109" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D109" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E109" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F109">
         <v>0.94</v>
@@ -7505,21 +7503,21 @@
         <v>0.57020000000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D110" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E110" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -7546,21 +7544,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C111" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E111" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F111">
         <v>0.99</v>
@@ -7587,18 +7585,18 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C112" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E112" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -7628,21 +7626,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E113" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -7669,18 +7667,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C114" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E114" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F114">
         <v>0.99</v>
@@ -7710,18 +7708,18 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -7751,18 +7749,18 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E116" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F116">
         <v>0.66839999999999999</v>
@@ -7792,21 +7790,21 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C117" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E117" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F117">
         <v>0.2024</v>
@@ -7836,21 +7834,21 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D118" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E118" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F118">
         <v>0.66900000000000004</v>
@@ -7880,18 +7878,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -7921,21 +7919,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D120" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E120" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F120">
         <v>0.6</v>
